--- a/tables/ucif_full.xlsx
+++ b/tables/ucif_full.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S19"/>
+  <dimension ref="A1:AA19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,85 +441,125 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>explanation rate</t>
+          <t>necessary explanation rate</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>sparsity</t>
+          <t>sufficient explanation rate</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>sparsity_necessary</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>sparsity_sufficient</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>avg_oracle_calls</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>avg_oracle_calls_cf</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Duration</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>initialisation (s)</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oracle calls (s)</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>explanation (s)</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>sparsity_values</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>sparsity_list</t>
-        </is>
-      </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>explanation_rate_list</t>
+          <t>sparsity_values_fid_plus</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
+          <t>sparsity_list_fid_plus</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>sparsity_values_fid_min</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>sparsity_list_fid_min</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>AUFC_plus</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>AUFC_min</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>necessary_rate_list</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>sufficient_rate_list</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>fidelity_minus</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
           <t>fidelity_plus</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>fidelity_minus</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>sparsity_all</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>characterization_score</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Explainer</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>meta</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>correct</t>
         </is>
@@ -531,636 +571,906 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>random</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.315</v>
+        <v>0.045</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0441468253968254</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>261.125</v>
+        <v>0.2888888888888889</v>
       </c>
       <c r="F2" t="n">
-        <v>174.4126984126984</v>
+        <v>0.3737870003051573</v>
       </c>
       <c r="G2" t="n">
-        <v>30.6028906065</v>
+        <v>13726.215</v>
       </c>
       <c r="H2" t="n">
-        <v>0.000972381585</v>
+        <v>13805</v>
       </c>
       <c r="I2" t="n">
-        <v>30.14044918188</v>
+        <v>94.30860643619501</v>
       </c>
       <c r="J2" t="n">
-        <v>0.46244142462</v>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>[0.015625, 0.03125, 0.046875, 0.046875, 0.015625, 0.046875, 0.078125, 0.03125, 0.046875, 0.03125, 0.03125, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.046875, 0.015625, 0.09375, 0.015625, 0.09375, 0.015625, 0.03125, 0.015625, 0.078125, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.046875, 0.015625, 0.171875, 0.015625, 0.015625, 0.015625, 0.328125, 0.015625, 0.015625, 0.015625, 0.046875, 0.0625, 0.015625, 0.015625, 0.015625, 0.03125, 0.078125, 0.015625, 0.015625, 0.03125, 0.015625, 0.015625, 0.015625, 0.015625, 0.078125, 0.078125, 0.125, 0.03125, 0.015625, 0.03125, 0.171875, 0.203125]</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>[0.015615, 0.015625, 0.03125, 0.046875, 0.0625, 0.078125, 0.09375, 0.125, 0.171875, 0.203125, 0.328125, 1.0]</t>
-        </is>
+        <v>0.045174232935</v>
+      </c>
+      <c r="K2" t="n">
+        <v>78.97652001199</v>
+      </c>
+      <c r="L2" t="n">
+        <v>15.28691219127</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[0.0, 0.17, 0.215, 0.25, 0.255, 0.28, 0.29, 0.295, 0.305, 0.31, 0.315, 0.315]</t>
-        </is>
-      </c>
-      <c r="N2" t="n">
-        <v>0.655</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.315</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.0859375</v>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>CoDy</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
+          <t>[0.6, 0.2, 0.2, 0.03333333333333333, 0.4666666666666667, 0.7, 0.03333333333333333, 0.1, 0.26666666666666666]</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>[0.03332333333333333, 0.03333333333333333, 0.1, 0.2, 0.26666666666666666, 0.4666666666666667, 0.6, 0.7, 1.0]</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>[0.06666666666666667, 0.06666666666666667, 0.6, 0.16666666666666666, 0.2, 0.2, 0.8, 0.4, 0.16666666666666666, 0.36666666666666664, 0.6333333333333333, 0.2, 0.06666666666666667, 0.7333333333333333, 0.36666666666666664, 0.3333333333333333, 0.06666666666666667, 0.13333333333333333, 0.7666666666666667, 0.7, 0.06666666666666667, 0.2, 0.5666666666666667, 0.2, 0.3333333333333333, 0.9310344827586207, 0.6, 0.3333333333333333, 0.03333333333333333, 0.7333333333333333, 0.16666666666666666, 0.9333333333333333, 0.9333333333333333, 0.5, 0.36666666666666664, 0.8, 0.2, 0.5, 0.13333333333333333, 0.4666666666666667, 0.6, 0.5, 0.7, 0.23333333333333334, 0.16666666666666666, 0.3, 0.2, 0.36666666666666664, 0.03333333333333333, 0.13333333333333333, 0.16666666666666666, 0.9, 0.1, 0.7666666666666667, 0.06666666666666667, 0.5, 0.6666666666666666, 0.6666666666666666, 0.06666666666666667, 0.7, 0.8, 0.6666666666666666, 0.06666666666666667, 0.06666666666666667, 0.1, 0.06666666666666667, 0.5, 0.7333333333333333, 0.1, 0.06666666666666667, 0.2413793103448276, 0.06666666666666667, 0.13333333333333333, 0.06666666666666667, 0.2, 0.6666666666666666, 0.9666666666666667, 0.1, 0.43333333333333335, 0.6551724137931034, 0.1, 0.2, 0.26666666666666666, 0.26666666666666666, 0.16666666666666666, 0.43333333333333335, 0.4666666666666667, 0.6333333333333333, 0.9, 0.7, 0.06666666666666667, 0.4, 0.16666666666666666, 0.3333333333333333, 0.8, 0.9, 0.06666666666666667, 0.03333333333333333, 0.3333333333333333, 0.8, 0.8333333333333334, 0.36666666666666664, 0.43333333333333335, 0.06666666666666667, 0.2, 0.26666666666666666, 0.06666666666666667, 0.1, 0.1, 0.3103448275862069, 0.7333333333333333, 0.03333333333333333, 0.13333333333333333]</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>[0.03332333333333333, 0.03333333333333333, 0.06666666666666667, 0.1, 0.13333333333333333, 0.16666666666666666, 0.2, 0.23333333333333334, 0.2413793103448276, 0.26666666666666666, 0.3, 0.3103448275862069, 0.3333333333333333, 0.36666666666666664, 0.4, 0.43333333333333335, 0.4666666666666667, 0.5, 0.5666666666666667, 0.6, 0.6333333333333333, 0.6551724137931034, 0.6666666666666666, 0.7, 0.7333333333333333, 0.7666666666666667, 0.8, 0.8333333333333334, 0.9, 0.9310344827586207, 0.9333333333333333, 0.9666666666666667, 1.0]</t>
+        </is>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.03391671666666667</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.3625087206896552</v>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>[0.0, 0.01, 0.015, 0.025, 0.03, 0.035, 0.04, 0.045, 0.045]</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>[0.0, 0.02, 0.105, 0.14, 0.165, 0.2, 0.25, 0.255, 0.26, 0.275, 0.28, 0.285, 0.31, 0.335, 0.345, 0.36, 0.37, 0.395, 0.4, 0.415, 0.425, 0.43, 0.45, 0.47, 0.49, 0.5, 0.525, 0.53, 0.545, 0.55, 0.56, 0.565, 0.565]</t>
+        </is>
+      </c>
+      <c r="U2" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.2930229885057472</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.08336065573770492</v>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>TGNNExplainer</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="S2" t="b">
+      <c r="AA2" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>recent</t>
+          <t>random</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.385</v>
+        <v>0.05</v>
       </c>
       <c r="D3" t="n">
-        <v>0.06960227272727272</v>
+        <v>0.28</v>
       </c>
       <c r="E3" t="n">
-        <v>261.225</v>
+        <v>0.0390625</v>
       </c>
       <c r="F3" t="n">
-        <v>197.6883116883117</v>
+        <v>0.04938616071428571</v>
       </c>
       <c r="G3" t="n">
-        <v>30.598101557775</v>
+        <v>24.8</v>
       </c>
       <c r="H3" t="n">
-        <v>0.000656140995</v>
+        <v>25</v>
       </c>
       <c r="I3" t="n">
-        <v>29.86987437224</v>
+        <v>2.216180264605</v>
       </c>
       <c r="J3" t="n">
-        <v>0.728227185535</v>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>[0.015625, 0.03125, 0.953125, 0.03125, 0.046875, 0.03125, 0.015625, 0.28125, 0.03125, 0.03125, 0.296875, 0.03125, 0.046875, 0.03125, 0.03125, 0.03125, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.109375, 0.015625, 0.03125, 0.015625, 0.265625, 0.0625, 0.015625, 0.03125, 0.015625, 0.015625, 0.046875, 0.046875, 0.015625, 0.015625, 0.015625, 0.015625, 0.03125, 0.015625, 0.921875, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.140625, 0.046875, 0.15625, 0.046875, 0.0625, 0.171875, 0.03125, 0.015625, 0.015625, 0.046875, 0.015625, 0.15625, 0.03125, 0.03125, 0.015625, 0.015625, 0.03125, 0.015625, 0.015625, 0.015625, 0.03125, 0.015625, 0.03125, 0.03125, 0.109375, 0.078125, 0.03125, 0.015625, 0.03125, 0.078125]</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>[0.015615, 0.015625, 0.03125, 0.046875, 0.0625, 0.078125, 0.109375, 0.140625, 0.15625, 0.171875, 0.265625, 0.28125, 0.296875, 0.921875, 0.953125, 1.0]</t>
-        </is>
+        <v>9.3380995e-05</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2.211229460895</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.00495080371</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[0.0, 0.17, 0.275, 0.31, 0.32, 0.33, 0.34, 0.345, 0.355, 0.36, 0.365, 0.37, 0.375, 0.38, 0.385, 0.385]</t>
-        </is>
-      </c>
-      <c r="N3" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0.385</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0.097109375</v>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>CoDy</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
+          <t>[0.03125, 0.046875, 0.015625, 0.015625, 0.046875, 0.0625, 0.015625, 0.046875, 0.0625, 0.046875]</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>[0.015615, 0.015625, 0.03125, 0.046875, 0.0625, 1.0]</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>[0.046875, 0.140625, 0.0625, 0.125, 0.03125, 0.03125, 0.03125, 0.015625, 0.078125, 0.03125, 0.046875, 0.015625, 0.015625, 0.03125, 0.015625, 0.015625, 0.0625, 0.09375, 0.09375, 0.0625, 0.03125, 0.046875, 0.109375, 0.078125, 0.0625, 0.046875, 0.015625, 0.046875, 0.0625, 0.03125, 0.015625, 0.046875, 0.015625, 0.015625, 0.09375, 0.015625, 0.015625, 0.03125, 0.078125, 0.046875, 0.046875, 0.15625, 0.015625, 0.015625, 0.0625, 0.046875, 0.03125, 0.03125, 0.046875, 0.046875, 0.03125, 0.078125, 0.046875, 0.046875, 0.09375, 0.015625]</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>[0.015615, 0.015625, 0.03125, 0.046875, 0.0625, 0.078125, 0.09375, 0.109375, 0.125, 0.140625, 0.15625, 1.0]</t>
+        </is>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.0483203875</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.26781285</v>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>[0.0, 0.015, 0.02, 0.04, 0.05, 0.05]</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>[0.0, 0.07, 0.125, 0.19, 0.22, 0.24, 0.26, 0.265, 0.27, 0.275, 0.28, 0.28]</t>
+        </is>
+      </c>
+      <c r="U3" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.02390625</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.08484848484848485</v>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>Greedy</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
         <is>
           <t>b</t>
         </is>
       </c>
-      <c r="S3" t="b">
+      <c r="AA3" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>closest</t>
+          <t>temporal</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.215</v>
+        <v>0.425</v>
       </c>
       <c r="D4" t="n">
-        <v>0.08030523255813954</v>
+        <v>0.61</v>
       </c>
       <c r="E4" t="n">
-        <v>261.135</v>
+        <v>0.04448529411764706</v>
       </c>
       <c r="F4" t="n">
-        <v>115.5813953488372</v>
+        <v>0.0587858606557377</v>
       </c>
       <c r="G4" t="n">
-        <v>33.7660269647</v>
+        <v>36.15</v>
       </c>
       <c r="H4" t="n">
-        <v>0.001724481755</v>
+        <v>28.47058823529412</v>
       </c>
       <c r="I4" t="n">
-        <v>29.906573457205</v>
+        <v>2.76005051421</v>
       </c>
       <c r="J4" t="n">
-        <v>3.859453507495</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>[0.015625, 0.03125, 0.015625, 0.046875, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.734375, 0.015625, 0.015625, 0.015625, 0.015625, 0.1875, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.046875, 0.015625, 0.015625, 0.015625, 0.921875, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.03125, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.890625, 0.03125, 0.015625]</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>[0.015615, 0.015625, 0.03125, 0.046875, 0.1875, 0.734375, 0.890625, 0.921875, 1.0]</t>
-        </is>
+        <v>9.253237499999999e-05</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2.753260277055</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.006790237155</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[0.0, 0.17, 0.185, 0.195, 0.2, 0.205, 0.21, 0.215, 0.215]</t>
-        </is>
-      </c>
-      <c r="N4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0.215</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0.07843749999999999</v>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>CoDy</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
+          <t>[0.015625, 0.0625, 0.0625, 0.09375, 0.015625, 0.015625, 0.078125, 0.03125, 0.03125, 0.03125, 0.03125, 0.03125, 0.0625, 0.0625, 0.03125, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.03125, 0.015625, 0.046875, 0.015625, 0.03125, 0.015625, 0.015625, 0.046875, 0.015625, 0.015625, 0.015625, 0.015625, 0.03125, 0.015625, 0.078125, 0.015625, 0.015625, 0.015625, 0.0625, 0.140625, 0.015625, 0.015625, 0.015625, 0.078125, 0.046875, 0.0625, 0.046875, 0.078125, 0.046875, 0.125, 0.109375, 0.03125, 0.015625, 0.125, 0.015625, 0.1875, 0.046875, 0.0625, 0.015625, 0.109375, 0.03125, 0.03125, 0.015625, 0.0625, 0.046875, 0.015625, 0.03125, 0.015625, 0.046875, 0.015625, 0.015625, 0.03125, 0.15625, 0.09375, 0.03125, 0.125, 0.09375, 0.03125, 0.0625, 0.046875, 0.03125, 0.0625]</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>[0.015615, 0.015625, 0.03125, 0.046875, 0.0625, 0.078125, 0.09375, 0.109375, 0.125, 0.140625, 0.15625, 0.1875, 1.0]</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>[0.015625, 0.03125, 0.0625, 0.0625, 0.0625, 0.046875, 0.09375, 0.109375, 0.015625, 0.0625, 0.03125, 0.078125, 0.03125, 0.03125, 0.140625, 0.03125, 0.015625, 0.03125, 0.0625, 0.0625, 0.03125, 0.0625, 0.015625, 0.015625, 0.03125, 0.015625, 0.015625, 0.078125, 0.015625, 0.015625, 0.015625, 0.015625, 0.03125, 0.1875, 0.0625, 0.046875, 0.03125, 0.125, 0.09375, 0.015625, 0.015625, 0.03125, 0.09375, 0.046875, 0.171875, 0.234375, 0.015625, 0.109375, 0.046875, 0.03125, 0.015625, 0.078125, 0.078125, 0.078125, 0.03125, 0.015625, 0.015625, 0.015625, 0.0625, 0.140625, 0.015625, 0.015625, 0.078125, 0.046875, 0.0625, 0.140625, 0.0625, 0.046875, 0.078125, 0.046875, 0.046875, 0.15625, 0.125, 0.078125, 0.109375, 0.03125, 0.03125, 0.078125, 0.125, 0.015625, 0.09375, 0.1875, 0.046875, 0.0625, 0.0625, 0.015625, 0.046875, 0.03125, 0.03125, 0.015625, 0.0625, 0.046875, 0.078125, 0.015625, 0.03125, 0.015625, 0.046875, 0.015625, 0.015625, 0.03125, 0.0625, 0.015625, 0.078125, 0.03125, 0.15625, 0.140625, 0.03125, 0.03125, 0.09375, 0.046875, 0.03125, 0.03125, 0.125, 0.109375, 0.09375, 0.03125, 0.140625, 0.046875, 0.03125, 0.0625, 0.0625, 0.046875]</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>[0.015615, 0.015625, 0.03125, 0.046875, 0.0625, 0.078125, 0.09375, 0.109375, 0.125, 0.140625, 0.15625, 0.171875, 0.1875, 0.234375, 1.0]</t>
+        </is>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.40812585</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.577891325</v>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>[0.0, 0.17, 0.255, 0.3, 0.35, 0.37, 0.385, 0.395, 0.41, 0.415, 0.42, 0.425, 0.425]</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>[0.0, 0.14, 0.27, 0.345, 0.43, 0.485, 0.515, 0.535, 0.555, 0.58, 0.59, 0.595, 0.605, 0.61, 0.61]</t>
+        </is>
+      </c>
+      <c r="U4" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.0475</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.5009661835748792</v>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>Greedy</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
         <is>
           <t>c</t>
         </is>
       </c>
-      <c r="S4" t="b">
+      <c r="AA4" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1-best</t>
+          <t>spatio-temporal</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.4</v>
+        <v>0.46</v>
       </c>
       <c r="D5" t="n">
-        <v>0.06601562499999999</v>
+        <v>0.635</v>
       </c>
       <c r="E5" t="n">
-        <v>312</v>
+        <v>0.04398777173913043</v>
       </c>
       <c r="F5" t="n">
-        <v>235.5</v>
+        <v>0.06126968503937008</v>
       </c>
       <c r="G5" t="n">
-        <v>37.3704242381</v>
+        <v>37.65</v>
       </c>
       <c r="H5" t="n">
-        <v>0.061604077585</v>
+        <v>28.15217391304348</v>
       </c>
       <c r="I5" t="n">
-        <v>35.995647770085</v>
+        <v>2.88220828972</v>
       </c>
       <c r="J5" t="n">
-        <v>1.374776468015</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>[0.015625, 0.03125, 0.640625, 0.03125, 0.046875, 0.03125, 0.015625, 0.03125, 0.03125, 0.046875, 0.03125, 0.046875, 0.03125, 0.03125, 0.0625, 0.0625, 0.03125, 0.921875, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.03125, 0.015625, 0.921875, 0.015625, 0.15625, 0.046875, 0.015625, 0.015625, 0.0625, 0.015625, 0.046875, 0.046875, 0.015625, 0.015625, 0.015625, 0.015625, 0.03125, 0.015625, 0.0625, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.046875, 0.046875, 0.078125, 0.03125, 0.234375, 0.03125, 0.078125, 0.015625, 0.015625, 0.125, 0.015625, 0.078125, 0.03125, 0.03125, 0.015625, 0.0625, 0.015625, 0.03125, 0.015625, 0.015625, 0.015625, 0.03125, 0.015625, 0.03125, 0.03125, 0.046875, 0.03125, 0.015625, 0.078125, 0.03125, 0.046875]</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>[0.015615, 0.015625, 0.03125, 0.046875, 0.0625, 0.078125, 0.125, 0.15625, 0.234375, 0.640625, 0.921875, 1.0]</t>
-        </is>
+        <v>6.31413e-05</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.872782074385</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.009426215335000002</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[0.0, 0.17, 0.275, 0.325, 0.35, 0.37, 0.375, 0.38, 0.385, 0.39, 0.4, 0.4]</t>
-        </is>
-      </c>
-      <c r="N5" t="n">
-        <v>0.675</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0.087265625</v>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>CoDy</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
+          <t>[0.015625, 0.0625, 0.03125, 0.09375, 0.03125, 0.015625, 0.046875, 0.03125, 0.03125, 0.046875, 0.03125, 0.03125, 0.03125, 0.0625, 0.046875, 0.046875, 0.03125, 0.046875, 0.015625, 0.015625, 0.015625, 0.015625, 0.109375, 0.015625, 0.109375, 0.015625, 0.015625, 0.015625, 0.03125, 0.140625, 0.046875, 0.046875, 0.015625, 0.03125, 0.015625, 0.046875, 0.046875, 0.09375, 0.015625, 0.015625, 0.015625, 0.015625, 0.03125, 0.015625, 0.078125, 0.046875, 0.015625, 0.015625, 0.03125, 0.0625, 0.078125, 0.015625, 0.015625, 0.015625, 0.078125, 0.046875, 0.0625, 0.046875, 0.078125, 0.046875, 0.03125, 0.09375, 0.125, 0.03125, 0.015625, 0.125, 0.015625, 0.09375, 0.046875, 0.0625, 0.015625, 0.046875, 0.109375, 0.03125, 0.015625, 0.0625, 0.03125, 0.03125, 0.015625, 0.015625, 0.015625, 0.03125, 0.15625, 0.09375, 0.015625, 0.03125, 0.03125, 0.046875, 0.03125, 0.03125, 0.0625, 0.046875]</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>[0.015615, 0.015625, 0.03125, 0.046875, 0.0625, 0.078125, 0.09375, 0.109375, 0.125, 0.140625, 0.15625, 1.0]</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>[0.015625, 0.046875, 0.0625, 0.109375, 0.03125, 0.046875, 0.09375, 0.1875, 0.03125, 0.015625, 0.109375, 0.109375, 0.046875, 0.03125, 0.03125, 0.046875, 0.125, 0.03125, 0.0625, 0.03125, 0.0625, 0.046875, 0.03125, 0.046875, 0.015625, 0.015625, 0.0625, 0.015625, 0.015625, 0.109375, 0.015625, 0.109375, 0.015625, 0.015625, 0.015625, 0.03125, 0.140625, 0.046875, 0.046875, 0.03125, 0.140625, 0.171875, 0.015625, 0.046875, 0.046875, 0.078125, 0.046875, 0.09375, 0.109375, 0.015625, 0.09375, 0.0625, 0.03125, 0.015625, 0.078125, 0.046875, 0.03125, 0.015625, 0.015625, 0.03125, 0.0625, 0.078125, 0.015625, 0.015625, 0.078125, 0.046875, 0.0625, 0.140625, 0.0625, 0.046875, 0.078125, 0.046875, 0.03125, 0.109375, 0.09375, 0.109375, 0.125, 0.03125, 0.046875, 0.0625, 0.125, 0.015625, 0.15625, 0.09375, 0.046875, 0.0625, 0.078125, 0.015625, 0.046875, 0.0625, 0.03125, 0.109375, 0.15625, 0.015625, 0.0625, 0.046875, 0.046875, 0.03125, 0.03125, 0.015625, 0.09375, 0.015625, 0.015625, 0.046875, 0.0625, 0.109375, 0.0625, 0.125, 0.03125, 0.15625, 0.109375, 0.046875, 0.03125, 0.09375, 0.046875, 0.3125, 0.03125, 0.015625, 0.03125, 0.078125, 0.078125, 0.03125, 0.046875, 0.03125, 0.0625, 0.046875, 0.03125]</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>[0.015615, 0.015625, 0.03125, 0.046875, 0.0625, 0.078125, 0.09375, 0.109375, 0.125, 0.140625, 0.15625, 0.171875, 0.1875, 0.3125, 1.0]</t>
+        </is>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.44218825</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.6003912250000001</v>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>[0.0, 0.15, 0.26, 0.345, 0.38, 0.4, 0.425, 0.44, 0.45, 0.455, 0.46, 0.46]</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>[0.0, 0.12, 0.24, 0.365, 0.44, 0.48, 0.515, 0.57, 0.59, 0.605, 0.62, 0.625, 0.63, 0.635, 0.635]</t>
+        </is>
+      </c>
+      <c r="U5" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.050390625</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.5335159817351599</v>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>Greedy</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
         <is>
           <t>d</t>
         </is>
       </c>
-      <c r="S5" t="b">
+      <c r="AA5" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>random</t>
+          <t>1-delta</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.05</v>
+        <v>0.285</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0390625</v>
+        <v>0.64</v>
       </c>
       <c r="E6" t="n">
-        <v>24.8</v>
+        <v>0.02850877192982456</v>
       </c>
       <c r="F6" t="n">
-        <v>25</v>
+        <v>0.052978515625</v>
       </c>
       <c r="G6" t="n">
-        <v>2.216180264605</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="H6" t="n">
-        <v>9.3380995e-05</v>
+        <v>71.24561403508773</v>
       </c>
       <c r="I6" t="n">
-        <v>2.211229460895</v>
+        <v>8.363942620525</v>
       </c>
       <c r="J6" t="n">
-        <v>0.00495080371</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>[0.03125, 0.046875, 0.015625, 0.015625, 0.046875, 0.0625, 0.015625, 0.046875, 0.0625, 0.046875]</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>[0.015615, 0.015625, 0.03125, 0.046875, 0.0625, 1.0]</t>
-        </is>
+        <v>4.161968206085</v>
+      </c>
+      <c r="K6" t="n">
+        <v>8.338679008234999</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.02526361229</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[0.0, 0.015, 0.02, 0.04, 0.05, 0.05]</t>
-        </is>
-      </c>
-      <c r="N6" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0.02390625</v>
-      </c>
-      <c r="Q6" t="inlineStr">
+          <t>[0.015625, 0.0625, 0.03125, 0.015625, 0.015625, 0.03125, 0.046875, 0.03125, 0.0625, 0.046875, 0.03125, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.046875, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.03125, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.078125, 0.078125, 0.03125, 0.125, 0.015625, 0.015625, 0.109375, 0.015625, 0.03125, 0.03125, 0.03125, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.03125, 0.03125, 0.015625, 0.03125, 0.046875]</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>[0.015615, 0.015625, 0.03125, 0.046875, 0.0625, 0.078125, 0.109375, 0.125, 1.0]</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>[0.015625, 0.125, 0.0625, 0.125, 0.03125, 0.09375, 0.109375, 0.03125, 0.109375, 0.015625, 0.0625, 0.03125, 0.03125, 0.0625, 0.03125, 0.046875, 0.0625, 0.046875, 0.03125, 0.0625, 0.046875, 0.03125, 0.09375, 0.140625, 0.015625, 0.015625, 0.03125, 0.015625, 0.015625, 0.125, 0.015625, 0.09375, 0.015625, 0.015625, 0.015625, 0.03125, 0.046875, 0.015625, 0.046875, 0.046875, 0.03125, 0.1875, 0.015625, 0.015625, 0.015625, 0.046875, 0.015625, 0.015625, 0.015625, 0.140625, 0.015625, 0.03125, 0.078125, 0.03125, 0.015625, 0.09375, 0.03125, 0.03125, 0.03125, 0.015625, 0.015625, 0.015625, 0.03125, 0.140625, 0.015625, 0.015625, 0.078125, 0.0625, 0.0625, 0.078125, 0.0625, 0.078125, 0.078125, 0.140625, 0.03125, 0.046875, 0.125, 0.09375, 0.09375, 0.015625, 0.140625, 0.109375, 0.046875, 0.015625, 0.09375, 0.109375, 0.046875, 0.046875, 0.0625, 0.015625, 0.03125, 0.03125, 0.03125, 0.015625, 0.140625, 0.03125, 0.09375, 0.015625, 0.015625, 0.015625, 0.015625, 0.03125, 0.015625, 0.015625, 0.03125, 0.171875, 0.015625, 0.015625, 0.109375, 0.03125, 0.03125, 0.046875, 0.03125, 0.03125, 0.046875, 0.078125, 0.03125, 0.03125, 0.03125, 0.171875, 0.140625, 0.0625, 0.03125, 0.046875, 0.03125, 0.0625, 0.046875, 0.046875]</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>[0.015615, 0.015625, 0.03125, 0.046875, 0.0625, 0.078125, 0.09375, 0.109375, 0.125, 0.140625, 0.171875, 0.1875, 1.0]</t>
+        </is>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.2777743125</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.6097665250000001</v>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>[0.0, 0.175, 0.235, 0.255, 0.265, 0.275, 0.28, 0.285, 0.285]</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>[0.0, 0.18, 0.34, 0.42, 0.475, 0.505, 0.545, 0.57, 0.59, 0.625, 0.635, 0.64, 0.64]</t>
+        </is>
+      </c>
+      <c r="U6" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.043671875</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.3943783783783784</v>
+      </c>
+      <c r="Y6" t="inlineStr">
         <is>
           <t>Greedy</t>
         </is>
       </c>
-      <c r="R6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
         <is>
           <t>e</t>
         </is>
       </c>
-      <c r="S6" t="b">
+      <c r="AA6" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>recent</t>
+          <t>random</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.425</v>
+        <v>0.315</v>
       </c>
       <c r="D7" t="n">
-        <v>0.04448529411764706</v>
+        <v>0.655</v>
       </c>
       <c r="E7" t="n">
-        <v>36.15</v>
+        <v>0.0441468253968254</v>
       </c>
       <c r="F7" t="n">
-        <v>28.47058823529412</v>
+        <v>0.1016221374045801</v>
       </c>
       <c r="G7" t="n">
-        <v>2.76005051421</v>
+        <v>261.125</v>
       </c>
       <c r="H7" t="n">
-        <v>9.253237499999999e-05</v>
+        <v>174.4126984126984</v>
       </c>
       <c r="I7" t="n">
-        <v>2.753260277055</v>
+        <v>30.6028906065</v>
       </c>
       <c r="J7" t="n">
-        <v>0.006790237155</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>[0.015625, 0.0625, 0.0625, 0.09375, 0.015625, 0.015625, 0.078125, 0.03125, 0.03125, 0.03125, 0.03125, 0.03125, 0.0625, 0.0625, 0.03125, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.03125, 0.015625, 0.046875, 0.015625, 0.03125, 0.015625, 0.015625, 0.046875, 0.015625, 0.015625, 0.015625, 0.015625, 0.03125, 0.015625, 0.078125, 0.015625, 0.015625, 0.015625, 0.0625, 0.140625, 0.015625, 0.015625, 0.015625, 0.078125, 0.046875, 0.0625, 0.046875, 0.078125, 0.046875, 0.125, 0.109375, 0.03125, 0.015625, 0.125, 0.015625, 0.1875, 0.046875, 0.0625, 0.015625, 0.109375, 0.03125, 0.03125, 0.015625, 0.0625, 0.046875, 0.015625, 0.03125, 0.015625, 0.046875, 0.015625, 0.015625, 0.03125, 0.15625, 0.09375, 0.03125, 0.125, 0.09375, 0.03125, 0.0625, 0.046875, 0.03125, 0.0625]</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>[0.015615, 0.015625, 0.03125, 0.046875, 0.0625, 0.078125, 0.09375, 0.109375, 0.125, 0.140625, 0.15625, 0.1875, 1.0]</t>
-        </is>
+        <v>0.000972381585</v>
+      </c>
+      <c r="K7" t="n">
+        <v>30.14044918188</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.46244142462</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[0.0, 0.17, 0.255, 0.3, 0.35, 0.37, 0.385, 0.395, 0.41, 0.415, 0.42, 0.425, 0.425]</t>
-        </is>
-      </c>
-      <c r="N7" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0.425</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0.0475</v>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>Greedy</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
+          <t>[0.015625, 0.03125, 0.046875, 0.046875, 0.015625, 0.046875, 0.078125, 0.03125, 0.046875, 0.03125, 0.03125, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.046875, 0.015625, 0.09375, 0.015625, 0.09375, 0.015625, 0.03125, 0.015625, 0.078125, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.046875, 0.015625, 0.171875, 0.015625, 0.015625, 0.015625, 0.328125, 0.015625, 0.015625, 0.015625, 0.046875, 0.0625, 0.015625, 0.015625, 0.015625, 0.03125, 0.078125, 0.015625, 0.015625, 0.03125, 0.015625, 0.015625, 0.015625, 0.015625, 0.078125, 0.078125, 0.125, 0.03125, 0.015625, 0.03125, 0.171875, 0.203125]</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>[0.015615, 0.015625, 0.03125, 0.046875, 0.0625, 0.078125, 0.09375, 0.125, 0.171875, 0.203125, 0.328125, 1.0]</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>[0.015625, 0.984375, 0.03125, 0.375, 0.046875, 0.0625, 0.1875, 0.046875, 0.03125, 0.046875, 0.015625, 0.03125, 0.875, 0.03125, 0.03125, 0.046875, 0.078125, 0.03125, 0.15625, 0.03125, 0.125, 0.046875, 0.046875, 0.03125, 0.015625, 0.015625, 0.296875, 0.015625, 0.015625, 0.03125, 0.015625, 0.015625, 0.046875, 0.015625, 0.09375, 0.078125, 0.109375, 0.09375, 0.03125, 0.09375, 0.03125, 0.015625, 0.03125, 0.015625, 0.15625, 0.03125, 0.0625, 0.03125, 0.03125, 0.03125, 0.03125, 0.015625, 0.078125, 0.890625, 0.046875, 0.015625, 0.03125, 0.171875, 0.578125, 0.015625, 0.015625, 0.015625, 0.328125, 0.25, 0.015625, 0.015625, 0.03125, 0.03125, 0.03125, 0.109375, 0.0625, 0.125, 0.03125, 0.046875, 0.046875, 0.03125, 0.109375, 0.03125, 0.03125, 0.0625, 0.03125, 0.046875, 0.03125, 0.015625, 0.03125, 0.03125, 0.03125, 0.03125, 0.390625, 0.015625, 0.03125, 0.03125, 0.078125, 0.078125, 0.453125, 0.03125, 0.015625, 0.03125, 0.125, 0.046875, 0.015625, 0.03125, 0.015625, 0.046875, 0.015625, 0.015625, 0.46875, 0.03125, 0.0625, 0.28125, 0.296875, 0.0625, 0.03125, 0.171875, 0.3125, 0.03125, 0.03125, 0.171875, 0.03125, 0.03125, 0.015625, 0.078125, 0.078125, 0.03125, 0.078125, 0.09375, 0.171875, 0.03125, 0.171875, 0.203125, 0.5]</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>[0.015615, 0.015625, 0.03125, 0.046875, 0.0625, 0.078125, 0.09375, 0.109375, 0.125, 0.15625, 0.171875, 0.1875, 0.203125, 0.25, 0.28125, 0.296875, 0.3125, 0.328125, 0.375, 0.390625, 0.453125, 0.46875, 0.5, 0.578125, 0.875, 0.890625, 0.984375, 1.0]</t>
+        </is>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.302735225</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.5940240875</v>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>[0.0, 0.17, 0.215, 0.25, 0.255, 0.28, 0.29, 0.295, 0.305, 0.31, 0.315, 0.315]</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>[0.0, 0.13, 0.35, 0.415, 0.445, 0.485, 0.505, 0.52, 0.535, 0.545, 0.57, 0.575, 0.58, 0.585, 0.59, 0.6, 0.605, 0.61, 0.615, 0.62, 0.625, 0.63, 0.635, 0.64, 0.645, 0.65, 0.655, 0.655]</t>
+        </is>
+      </c>
+      <c r="U7" t="n">
+        <v>0.655</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.0859375</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.4254123711340207</v>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>CoDy</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
         <is>
           <t>f</t>
         </is>
       </c>
-      <c r="S7" t="b">
+      <c r="AA7" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>closest</t>
+          <t>temporal</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.01</v>
+        <v>0.385</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0234375</v>
+        <v>0.66</v>
       </c>
       <c r="E8" t="n">
-        <v>24.25</v>
+        <v>0.06960227272727272</v>
       </c>
       <c r="F8" t="n">
-        <v>15</v>
+        <v>0.1234611742424242</v>
       </c>
       <c r="G8" t="n">
-        <v>1.729938742635</v>
+        <v>261.225</v>
       </c>
       <c r="H8" t="n">
-        <v>9.223048e-05</v>
+        <v>197.6883116883117</v>
       </c>
       <c r="I8" t="n">
-        <v>1.72386454504</v>
+        <v>30.598101557775</v>
       </c>
       <c r="J8" t="n">
-        <v>0.006074197595</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>[0.015625, 0.03125]</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>[0.015615, 0.015625, 0.03125, 1.0]</t>
-        </is>
+        <v>0.000656140995</v>
+      </c>
+      <c r="K8" t="n">
+        <v>29.86987437224</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.728227185535</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[0.0, 0.005, 0.01, 0.01]</t>
-        </is>
-      </c>
-      <c r="N8" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0.022421875</v>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>Greedy</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
+          <t>[0.015625, 0.03125, 0.953125, 0.03125, 0.046875, 0.03125, 0.015625, 0.28125, 0.03125, 0.03125, 0.296875, 0.03125, 0.046875, 0.03125, 0.03125, 0.03125, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.109375, 0.015625, 0.03125, 0.015625, 0.265625, 0.0625, 0.015625, 0.03125, 0.015625, 0.015625, 0.046875, 0.046875, 0.015625, 0.015625, 0.015625, 0.015625, 0.03125, 0.015625, 0.921875, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.140625, 0.046875, 0.15625, 0.046875, 0.0625, 0.171875, 0.03125, 0.015625, 0.015625, 0.046875, 0.015625, 0.15625, 0.03125, 0.03125, 0.015625, 0.015625, 0.03125, 0.015625, 0.015625, 0.015625, 0.03125, 0.015625, 0.03125, 0.03125, 0.109375, 0.078125, 0.03125, 0.015625, 0.03125, 0.078125]</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>[0.015615, 0.015625, 0.03125, 0.046875, 0.0625, 0.078125, 0.109375, 0.140625, 0.15625, 0.171875, 0.265625, 0.28125, 0.296875, 0.921875, 0.953125, 1.0]</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>[0.015625, 0.953125, 0.03125, 0.78125, 0.03125, 0.046875, 0.0625, 0.046875, 0.03125, 0.03125, 0.015625, 0.03125, 0.03125, 0.28125, 0.03125, 0.03125, 0.296875, 0.03125, 0.40625, 0.03125, 0.046875, 0.234375, 0.03125, 0.515625, 0.265625, 0.015625, 0.015625, 0.375, 0.015625, 0.015625, 0.03125, 0.015625, 0.015625, 0.109375, 0.015625, 0.03125, 0.03125, 0.265625, 0.0625, 0.03125, 0.078125, 0.03125, 0.015625, 0.015625, 0.046875, 0.03125, 0.046875, 0.03125, 0.03125, 0.046875, 0.03125, 0.015625, 0.265625, 0.96875, 0.03125, 0.015625, 0.03125, 0.046875, 0.921875, 0.75, 0.015625, 0.015625, 0.015625, 0.046875, 0.28125, 0.015625, 0.015625, 0.140625, 0.046875, 0.046875, 0.28125, 0.15625, 0.046875, 0.03125, 0.0625, 0.078125, 0.078125, 0.171875, 0.109375, 0.03125, 0.03125, 0.046875, 0.703125, 0.03125, 0.015625, 0.0625, 0.1875, 0.046875, 0.03125, 0.078125, 0.015625, 0.03125, 0.046875, 0.046875, 0.03125, 0.078125, 0.03125, 0.015625, 0.109375, 0.03125, 0.96875, 0.015625, 0.03125, 0.015625, 0.0625, 0.015625, 0.015625, 0.078125, 0.03125, 0.0625, 0.03125, 0.03125, 0.03125, 0.03125, 0.265625, 0.859375, 0.71875, 0.046875, 0.0625, 0.03125, 0.03125, 0.015625, 0.03125, 0.078125, 0.03125, 0.03125, 0.03125, 0.078125, 0.03125, 0.203125, 0.078125, 0.078125]</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>[0.015615, 0.015625, 0.03125, 0.046875, 0.0625, 0.078125, 0.109375, 0.140625, 0.15625, 0.171875, 0.1875, 0.203125, 0.234375, 0.265625, 0.28125, 0.296875, 0.375, 0.40625, 0.515625, 0.703125, 0.71875, 0.75, 0.78125, 0.859375, 0.921875, 0.953125, 0.96875, 1.0]</t>
+        </is>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.3617586625</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.5842584625000001</v>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>[0.0, 0.17, 0.275, 0.31, 0.32, 0.33, 0.34, 0.345, 0.355, 0.36, 0.365, 0.37, 0.375, 0.38, 0.385, 0.385]</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>[0.0, 0.13, 0.35, 0.43, 0.465, 0.515, 0.53, 0.535, 0.54, 0.545, 0.55, 0.555, 0.56, 0.58, 0.595, 0.6, 0.605, 0.61, 0.615, 0.62, 0.625, 0.63, 0.635, 0.64, 0.645, 0.65, 0.66, 0.66]</t>
+        </is>
+      </c>
+      <c r="U8" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.097109375</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0.4863157894736841</v>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>CoDy</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
         <is>
           <t>g</t>
         </is>
       </c>
-      <c r="S8" t="b">
+      <c r="AA8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1-best</t>
+          <t>spatio-temporal</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.285</v>
+        <v>0.44</v>
       </c>
       <c r="D9" t="n">
-        <v>0.02850877192982456</v>
+        <v>0.6850000000000001</v>
       </c>
       <c r="E9" t="n">
-        <v>88.09999999999999</v>
+        <v>0.03657670454545454</v>
       </c>
       <c r="F9" t="n">
-        <v>71.24561403508773</v>
+        <v>0.0927235401459854</v>
       </c>
       <c r="G9" t="n">
-        <v>8.363942620525</v>
+        <v>260.95</v>
       </c>
       <c r="H9" t="n">
-        <v>4.161968206085</v>
+        <v>209.9772727272727</v>
       </c>
       <c r="I9" t="n">
-        <v>8.338679008234999</v>
+        <v>33.7660269647</v>
       </c>
       <c r="J9" t="n">
-        <v>0.02526361229</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>[0.015625, 0.0625, 0.03125, 0.015625, 0.015625, 0.03125, 0.046875, 0.03125, 0.0625, 0.046875, 0.03125, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.046875, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.03125, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.078125, 0.078125, 0.03125, 0.125, 0.015625, 0.015625, 0.109375, 0.015625, 0.03125, 0.03125, 0.03125, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.03125, 0.03125, 0.015625, 0.03125, 0.046875]</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>[0.015615, 0.015625, 0.03125, 0.046875, 0.0625, 0.078125, 0.109375, 0.125, 1.0]</t>
-        </is>
+        <v>0.001724481755</v>
+      </c>
+      <c r="K9" t="n">
+        <v>29.906573457205</v>
+      </c>
+      <c r="L9" t="n">
+        <v>3.859453507495</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[0.0, 0.175, 0.235, 0.255, 0.265, 0.275, 0.28, 0.285, 0.285]</t>
-        </is>
-      </c>
-      <c r="N9" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0.285</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0.043671875</v>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>Greedy</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
+          <t>[0.015625, 0.03125, 0.03125, 0.046875, 0.03125, 0.015625, 0.046875, 0.046875, 0.03125, 0.03125, 0.046875, 0.03125, 0.03125, 0.03125, 0.078125, 0.046875, 0.125, 0.03125, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.046875, 0.015625, 0.03125, 0.015625, 0.0625, 0.046875, 0.015625, 0.03125, 0.015625, 0.046875, 0.015625, 0.046875, 0.046875, 0.015625, 0.015625, 0.015625, 0.015625, 0.03125, 0.015625, 0.046875, 0.015625, 0.015625, 0.015625, 0.078125, 0.015625, 0.015625, 0.015625, 0.078125, 0.046875, 0.0625, 0.046875, 0.046875, 0.03125, 0.09375, 0.03125, 0.078125, 0.015625, 0.015625, 0.15625, 0.046875, 0.0625, 0.015625, 0.09375, 0.03125, 0.03125, 0.015625, 0.0625, 0.015625, 0.03125, 0.015625, 0.046875, 0.015625, 0.015625, 0.03125, 0.015625, 0.03125, 0.03125, 0.046875, 0.0625, 0.03125, 0.015625, 0.03125, 0.0625, 0.046875]</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>[0.015615, 0.015625, 0.03125, 0.046875, 0.0625, 0.078125, 0.09375, 0.125, 0.15625, 1.0]</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>[0.015625, 0.96875, 0.03125, 0.875, 0.03125, 0.046875, 0.0625, 0.046875, 0.03125, 0.03125, 0.015625, 0.03125, 0.046875, 0.046875, 0.03125, 0.03125, 0.046875, 0.03125, 0.109375, 0.03125, 0.078125, 0.125, 0.03125, 0.515625, 0.34375, 0.015625, 0.015625, 0.4375, 0.015625, 0.015625, 0.03125, 0.015625, 0.109375, 0.015625, 0.046875, 0.015625, 0.03125, 0.125, 0.0625, 0.046875, 0.03125, 0.0625, 0.03125, 0.015625, 0.015625, 0.046875, 0.078125, 0.046875, 0.046875, 0.03125, 0.046875, 0.03125, 0.015625, 0.296875, 0.953125, 0.03125, 0.046875, 0.015625, 0.046875, 0.0625, 0.046875, 0.75, 0.015625, 0.015625, 0.015625, 0.046875, 0.078125, 0.015625, 0.015625, 0.078125, 0.046875, 0.0625, 0.0625, 0.0625, 0.046875, 0.046875, 0.046875, 0.03125, 0.078125, 0.09375, 0.15625, 0.046875, 0.03125, 0.078125, 0.078125, 0.03125, 0.015625, 0.0625, 0.15625, 0.046875, 0.0625, 0.078125, 0.015625, 0.03125, 0.078125, 0.046875, 0.03125, 0.03125, 0.03125, 0.015625, 0.0625, 0.03125, 0.953125, 0.03125, 0.015625, 0.03125, 0.015625, 0.046875, 0.015625, 0.015625, 0.0625, 0.15625, 0.046875, 0.0625, 0.0625, 0.03125, 0.03125, 0.0625, 0.03125, 0.71875, 0.046875, 0.03125, 0.03125, 0.03125, 0.046875, 0.015625, 0.03125, 0.078125, 0.03125, 0.03125, 0.0625, 0.0625, 0.109375, 0.03125, 0.0625, 0.046875, 0.078125]</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>[0.015615, 0.015625, 0.03125, 0.046875, 0.0625, 0.078125, 0.09375, 0.109375, 0.125, 0.15625, 0.296875, 0.34375, 0.4375, 0.515625, 0.71875, 0.75, 0.875, 0.953125, 0.96875, 1.0]</t>
+        </is>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.4260946</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.6277740875</v>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>[0.0, 0.17, 0.28, 0.37, 0.4, 0.42, 0.43, 0.435, 0.44, 0.44]</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>[0.0, 0.13, 0.315, 0.45, 0.535, 0.59, 0.595, 0.61, 0.62, 0.635, 0.64, 0.645, 0.65, 0.655, 0.66, 0.665, 0.67, 0.68, 0.685, 0.685]</t>
+        </is>
+      </c>
+      <c r="U9" t="n">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.075625</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0.5358222222222222</v>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>CoDy</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
         <is>
           <t>h</t>
         </is>
       </c>
-      <c r="S9" t="b">
+      <c r="AA9" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1-delta</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.045</v>
+        <v>0.4</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2888888888888889</v>
+        <v>0.675</v>
       </c>
       <c r="E10" t="n">
-        <v>13726.215</v>
+        <v>0.06601562499999999</v>
       </c>
       <c r="F10" t="n">
-        <v>13805</v>
+        <v>0.09976851851851852</v>
       </c>
       <c r="G10" t="n">
-        <v>94.30860643619501</v>
+        <v>312</v>
       </c>
       <c r="H10" t="n">
-        <v>0.045174232935</v>
+        <v>235.5</v>
       </c>
       <c r="I10" t="n">
-        <v>78.97652001199</v>
+        <v>37.3704242381</v>
       </c>
       <c r="J10" t="n">
-        <v>15.28691219127</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>[0.6, 0.2, 0.2, 0.03333333333333333, 0.4666666666666667, 0.7, 0.03333333333333333, 0.1, 0.26666666666666666]</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>[0.03332333333333333, 0.03333333333333333, 0.1, 0.2, 0.26666666666666666, 0.4666666666666667, 0.6, 0.7, 1.0]</t>
-        </is>
+        <v>0.061604077585</v>
+      </c>
+      <c r="K10" t="n">
+        <v>35.995647770085</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.374776468015</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[0.0, 0.01, 0.015, 0.025, 0.03, 0.035, 0.04, 0.045, 0.045]</t>
-        </is>
-      </c>
-      <c r="N10" t="n">
-        <v>0.5649999999999999</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0.045</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0.2930229885057472</v>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>TGNNExplainer</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
+          <t>[0.015625, 0.03125, 0.640625, 0.03125, 0.046875, 0.03125, 0.015625, 0.03125, 0.03125, 0.046875, 0.03125, 0.046875, 0.03125, 0.03125, 0.0625, 0.0625, 0.03125, 0.921875, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.03125, 0.015625, 0.921875, 0.015625, 0.15625, 0.046875, 0.015625, 0.015625, 0.0625, 0.015625, 0.046875, 0.046875, 0.015625, 0.015625, 0.015625, 0.015625, 0.03125, 0.015625, 0.0625, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.046875, 0.046875, 0.078125, 0.03125, 0.234375, 0.03125, 0.078125, 0.015625, 0.015625, 0.125, 0.015625, 0.078125, 0.03125, 0.03125, 0.015625, 0.0625, 0.015625, 0.03125, 0.015625, 0.015625, 0.015625, 0.03125, 0.015625, 0.03125, 0.03125, 0.046875, 0.03125, 0.015625, 0.078125, 0.03125, 0.046875]</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>[0.015615, 0.015625, 0.03125, 0.046875, 0.0625, 0.078125, 0.125, 0.15625, 0.234375, 0.640625, 0.921875, 1.0]</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>[0.015625, 0.640625, 0.03125, 0.765625, 0.03125, 0.046875, 0.0625, 0.046875, 0.03125, 0.03125, 0.015625, 0.046875, 0.03125, 0.046875, 0.03125, 0.03125, 0.046875, 0.09375, 0.03125, 0.125, 0.03125, 0.0625, 0.0625, 0.03125, 0.921875, 0.125, 0.015625, 0.015625, 0.03125, 0.015625, 0.015625, 0.03125, 0.015625, 0.125, 0.015625, 0.03125, 0.015625, 0.921875, 0.09375, 0.15625, 0.046875, 0.84375, 0.09375, 0.03125, 0.015625, 0.046875, 0.015625, 0.046875, 0.0625, 0.046875, 0.0625, 0.03125, 0.046875, 0.03125, 0.015625, 0.109375, 0.96875, 0.03125, 0.015625, 0.046875, 0.0625, 0.0625, 0.015625, 0.015625, 0.015625, 0.03125, 0.046875, 0.015625, 0.015625, 0.046875, 0.046875, 0.046875, 0.4375, 0.34375, 0.046875, 0.078125, 0.078125, 0.03125, 0.078125, 0.234375, 0.109375, 0.046875, 0.03125, 0.078125, 0.09375, 0.046875, 0.015625, 0.09375, 0.125, 0.0625, 0.078125, 0.171875, 0.015625, 0.03125, 0.0625, 0.125, 0.03125, 0.03125, 0.046875, 0.015625, 0.0625, 0.03125, 0.90625, 0.078125, 0.015625, 0.03125, 0.015625, 0.046875, 0.015625, 0.015625, 0.125, 0.203125, 0.046875, 0.265625, 0.03125, 0.03125, 0.03125, 0.03125, 0.03125, 0.03125, 0.0625, 0.03125, 0.03125, 0.03125, 0.015625, 0.03125, 0.125, 0.03125, 0.03125, 0.0625, 0.03125, 0.03125, 0.140625, 0.046875, 0.109375]</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>[0.015615, 0.015625, 0.03125, 0.046875, 0.0625, 0.078125, 0.09375, 0.109375, 0.125, 0.140625, 0.15625, 0.171875, 0.203125, 0.234375, 0.265625, 0.34375, 0.4375, 0.640625, 0.765625, 0.84375, 0.90625, 0.921875, 0.96875, 1.0]</t>
+        </is>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.3779696</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.6134772125000001</v>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>[0.0, 0.17, 0.275, 0.325, 0.35, 0.37, 0.375, 0.38, 0.385, 0.39, 0.4, 0.4]</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>[0.0, 0.13, 0.325, 0.435, 0.495, 0.525, 0.55, 0.565, 0.6, 0.605, 0.61, 0.615, 0.62, 0.625, 0.63, 0.635, 0.64, 0.645, 0.65, 0.655, 0.66, 0.67, 0.675, 0.675]</t>
+        </is>
+      </c>
+      <c r="U10" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.087265625</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0.5023255813953489</v>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>CoDy</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
         <is>
           <t>i</t>
         </is>
       </c>
-      <c r="S10" t="b">
+      <c r="AA10" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1170,636 +1480,906 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>random</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.31</v>
+        <v>0.275</v>
       </c>
       <c r="D11" t="n">
-        <v>0.04225641869651087</v>
+        <v>0.72</v>
       </c>
       <c r="E11" t="n">
-        <v>257.255</v>
+        <v>0.3248484848484848</v>
       </c>
       <c r="F11" t="n">
-        <v>159.8870967741935</v>
+        <v>0.3295388525780685</v>
       </c>
       <c r="G11" t="n">
-        <v>38.45274139260501</v>
+        <v>13667.66</v>
       </c>
       <c r="H11" t="n">
-        <v>0.001266267025</v>
+        <v>13805</v>
       </c>
       <c r="I11" t="n">
-        <v>38.0221194913</v>
+        <v>91.88154397542</v>
       </c>
       <c r="J11" t="n">
-        <v>0.430621901305</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>[0.015625, 0.015625, 0.015625, 0.140625, 0.015625, 0.046875, 0.015625, 0.0625, 0.015625, 0.046875, 0.015625, 0.078125, 0.015625, 0.140625, 0.015625, 0.0625, 0.046875, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.03125, 0.015625, 0.015625, 0.09375, 0.03125, 0.015625, 0.140625, 0.015625, 0.015625, 0.015625, 0.24489795918367346, 0.015625, 0.046875, 0.015625, 0.015625, 0.078125, 0.234375, 0.015625, 0.09375, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.03125, 0.03125, 0.046875, 0.015625, 0.015625, 0.015625, 0.046875, 0.015625, 0.1875, 0.015625, 0.015625, 0.015625, 0.015625, 0.03125, 0.03125]</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>[0.015615, 0.015625, 0.03125, 0.046875, 0.0625, 0.078125, 0.09375, 0.140625, 0.1875, 0.234375, 0.24489795918367346, 1.0]</t>
-        </is>
+        <v>0.064283386315</v>
+      </c>
+      <c r="K11" t="n">
+        <v>76.79272849949001</v>
+      </c>
+      <c r="L11" t="n">
+        <v>15.024532089615</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[0.0, 0.19, 0.22, 0.25, 0.26, 0.27, 0.28, 0.295, 0.3, 0.305, 0.31, 0.31]</t>
-        </is>
-      </c>
-      <c r="N11" t="n">
-        <v>0.965</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0.05623519363885905</v>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>CoDy</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
+          <t>[0.8, 0.1, 0.8, 0.7666666666666667, 0.06666666666666667, 0.8, 0.9333333333333333, 0.8666666666666667, 0.06666666666666667, 0.03333333333333333, 0.5, 0.06666666666666667, 0.6, 0.13333333333333333, 0.0, 0.43333333333333335, 0.06666666666666667, 0.06666666666666667, 0.06666666666666667, 0.5666666666666667, 0.13333333333333333, 0.23333333333333334, 0.06666666666666667, 0.03333333333333333, 0.06666666666666667, 0.03333333333333333, 0.16666666666666666, 0.5, 0.1, 0.3, 0.6666666666666666, 0.7, 0.06666666666666667, 0.9, 0.06666666666666667, 0.06666666666666667, 0.43333333333333335, 0.8666666666666667, 0.03333333333333333, 0.06666666666666667, 0.26666666666666666, 0.5666666666666667, 0.03333333333333333, 0.1, 0.8333333333333334, 0.13333333333333333, 0.2, 0.26666666666666666, 0.03333333333333333, 0.23333333333333334, 0.13333333333333333, 0.06666666666666667, 0.7, 0.9333333333333333, 0.13333333333333333]</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>[-1e-05, 0.0, 0.03333333333333333, 0.06666666666666667, 0.1, 0.13333333333333333, 0.16666666666666666, 0.2, 0.23333333333333334, 0.26666666666666666, 0.3, 0.43333333333333335, 0.5, 0.5666666666666667, 0.6, 0.6666666666666666, 0.7, 0.7666666666666667, 0.8, 0.8333333333333334, 0.8666666666666667, 0.9, 0.9333333333333333, 1.0]</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>[0.5333333333333333, 0.8, 0.16666666666666666, 0.8, 0.5, 0.7666666666666667, 0.06666666666666667, 0.0, 0.03333333333333333, 0.06666666666666667, 0.6666666666666666, 0.8, 0.9333333333333333, 0.9333333333333333, 0.06666666666666667, 0.03333333333333333, 0.03333333333333333, 0.1, 0.7647058823529411, 0.03333333333333333, 0.8666666666666667, 0.13333333333333333, 0.05555555555555555, 0.23333333333333334, 0.7333333333333333, 0.1, 0.03333333333333333, 0.0, 0.3, 0.8666666666666667, 0.06666666666666667, 0.06666666666666667, 0.13333333333333333, 0.03333333333333333, 0.06666666666666667, 0.0, 0.8333333333333334, 0.8666666666666667, 0.23333333333333334, 0.03333333333333333, 0.43333333333333335, 0.06666666666666667, 0.03333333333333333, 0.9333333333333333, 0.03333333333333333, 0.6333333333333333, 0.03333333333333333, 0.9, 0.0, 0.8, 0.8, 0.06666666666666667, 0.1, 0.06666666666666667, 0.0, 0.8, 0.9, 0.03333333333333333, 0.5666666666666667, 0.23333333333333334, 0.03333333333333333, 0.06666666666666667, 0.0, 0.23333333333333334, 0.03333333333333333, 0.06666666666666667, 0.36666666666666664, 0.03333333333333333, 0.03333333333333333, 0.06666666666666667, 0.1, 0.06666666666666667, 0.03333333333333333, 0.03333333333333333, 0.9333333333333333, 0.36666666666666664, 0.1, 0.03333333333333333, 0.03333333333333333, 0.06666666666666667, 0.8666666666666667, 0.9333333333333333, 0.6666666666666666, 0.9333333333333333, 0.7, 0.06666666666666667, 0.8666666666666667, 0.7333333333333333, 0.9, 0.06666666666666667, 0.06666666666666667, 0.06666666666666667, 0.1, 0.8, 0.7666666666666667, 0.43333333333333335, 0.9, 0.3, 0.06666666666666667, 0.8666666666666667, 0.03333333333333333, 0.8666666666666667, 0.06666666666666667, 0.0, 0.0, 0.7, 0.03333333333333333, 0.8666666666666667, 0.03333333333333333, 0.06666666666666667, 0.06666666666666667, 0.8666666666666667, 0.3333333333333333, 0.06666666666666667, 0.9, 0.0, 0.6333333333333333, 0.06666666666666667, 0.03333333333333333, 0.06666666666666667, 0.5666666666666667, 0.03333333333333333, 0.26666666666666666, 0.23333333333333334, 0.0, 0.16666666666666666, 0.13333333333333333, 0.26666666666666666, 0.06666666666666667, 0.9666666666666667, 0.03333333333333333, 0.9333333333333333, 0.23333333333333334, 0.06666666666666667, 0.03333333333333333, 0.03333333333333333, 0.13333333333333333, 0.06666666666666667, 0.06666666666666667, 0.7, 0.03333333333333333, 0.9333333333333333, 0.13333333333333333, 0.6666666666666666]</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>[-1e-05, 0.0, 0.03333333333333333, 0.05555555555555555, 0.06666666666666667, 0.1, 0.13333333333333333, 0.16666666666666666, 0.23333333333333334, 0.26666666666666666, 0.3, 0.3333333333333333, 0.36666666666666664, 0.43333333333333335, 0.5, 0.5333333333333333, 0.5666666666666667, 0.6333333333333333, 0.6666666666666666, 0.7, 0.7333333333333333, 0.7647058823529411, 0.7666666666666667, 0.8, 0.8333333333333334, 0.8666666666666667, 0.9, 0.9333333333333333, 0.9666666666666667, 1.0]</t>
+        </is>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.1911666916666667</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.4930149558823529</v>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>[0.0, 0.005, 0.035, 0.1, 0.115, 0.14, 0.145, 0.15, 0.16, 0.17, 0.175, 0.185, 0.195, 0.205, 0.21, 0.215, 0.225, 0.23, 0.245, 0.25, 0.26, 0.265, 0.275, 0.275]</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>[0.0, 0.05, 0.19, 0.195, 0.34, 0.37, 0.395, 0.405, 0.435, 0.445, 0.455, 0.46, 0.47, 0.48, 0.485, 0.49, 0.5, 0.51, 0.525, 0.54, 0.55, 0.555, 0.565, 0.6, 0.605, 0.65, 0.675, 0.715, 0.72, 0.72]</t>
+        </is>
+      </c>
+      <c r="U11" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0.3466013071895425</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0.3979899497487437</v>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>TGNNExplainer</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="S11" t="b">
+      <c r="AA11" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>recent</t>
+          <t>random</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.375</v>
+        <v>0.065</v>
       </c>
       <c r="D12" t="n">
-        <v>0.04102465986394558</v>
+        <v>0.985</v>
       </c>
       <c r="E12" t="n">
-        <v>256.305</v>
+        <v>0.02884615384615385</v>
       </c>
       <c r="F12" t="n">
-        <v>181.8133333333333</v>
+        <v>0.01956124031676969</v>
       </c>
       <c r="G12" t="n">
-        <v>38.74158638748001</v>
+        <v>21.8</v>
       </c>
       <c r="H12" t="n">
-        <v>0.00066164043</v>
+        <v>18.46153846153846</v>
       </c>
       <c r="I12" t="n">
-        <v>38.144586095495</v>
+        <v>2.61809634633</v>
       </c>
       <c r="J12" t="n">
-        <v>0.597000291985</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>[0.09375, 0.015625, 0.015625, 0.015625, 0.109375, 0.015625, 0.03125, 0.015625, 0.03125, 0.015625, 0.03125, 0.015625, 0.109375, 0.015625, 0.0625, 0.015625, 0.03125, 0.015625, 0.015625, 0.015625, 0.0625, 0.015625, 0.015625, 0.015625, 0.03125, 0.015625, 0.015625, 0.125, 0.109375, 0.078125, 0.078125, 0.015625, 0.03125, 0.015625, 0.078125, 0.015625, 0.015625, 0.061224489795918366, 0.015625, 0.078125, 0.03125, 0.03125, 0.015625, 0.015625, 0.0625, 0.03125, 0.015625, 0.0625, 0.015625, 0.03125, 0.015625, 0.015625, 0.015625, 0.125, 0.015625, 0.03125, 0.03125, 0.03125, 0.03125, 0.015625, 0.015625, 0.140625, 0.015625, 0.03125, 0.125, 0.015625, 0.0625, 0.015625, 0.0625, 0.015625, 0.015625, 0.203125, 0.015625, 0.09375, 0.03125]</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>[0.015615, 0.015625, 0.03125, 0.061224489795918366, 0.0625, 0.078125, 0.09375, 0.109375, 0.125, 0.140625, 0.203125, 1.0]</t>
-        </is>
+        <v>9.5932705e-05</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2.61338170933</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.004714637</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[0.0, 0.19, 0.27, 0.275, 0.305, 0.325, 0.335, 0.35, 0.365, 0.37, 0.375, 0.375]</t>
-        </is>
-      </c>
-      <c r="N12" t="n">
-        <v>0.975</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0.375</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0.04992620129192028</v>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>CoDy</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
+          <t>[0.03125, 0.015625, 0.015625, 0.046875, 0.03125, 0.046875, 0.03125, 0.015625, 0.03125, 0.015625, 0.015625, 0.0625, 0.015625]</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>[0.015615, 0.015625, 0.03125, 0.046875, 0.0625, 1.0]</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0625, 0.015625, 0.015625, 0.03125, 0.015873015873015872, 0.015625, 0.0, 0.015625, 0.015625, 0.03125, 0.0, 0.03125, 0.0, 0.046875, 0.015625, 0.015625, 0.0, 0.015625, 0.03125, 0.0, 0.03125, 0.015625, 0.0, 0.0, 0.0, 0.015625, 0.015625, 0.015625, 0.0, 0.046875, 0.0, 0.015625, 0.0, 0.0, 0.015625, 0.03125, 0.0, 0.015625, 0.015625, 0.03125, 0.03125, 0.0, 0.0, 0.0, 0.015625, 0.015625, 0.0, 0.015625, 0.0, 0.046875, 0.09375, 0.015625, 0.0, 0.015625, 0.0, 0.03125, 0.03125, 0.0625, 0.0, 0.015625, 0.0, 0.046875, 0.03125, 0.046875, 0.0, 0.0, 0.015625, 0.03125, 0.03125, 0.0, 0.015625, 0.046875, 0.0, 0.046875, 0.03125, 0.0, 0.015625, 0.03125, 0.03125, 0.0, 0.0, 0.04081632653061224, 0.046875, 0.015625, 0.015625, 0.015625, 0.03125, 0.0, 0.015625, 0.0, 0.015625, 0.0, 0.0, 0.03125, 0.03125, 0.0, 0.0, 0.015625, 0.03125, 0.015625, 0.03125, 0.046875, 0.0, 0.015625, 0.015625, 0.046875, 0.015625, 0.0, 0.015625, 0.03125, 0.03125, 0.015625, 0.0, 0.0, 0.015625, 0.0, 0.0, 0.015625, 0.09375, 0.03125, 0.0, 0.015625, 0.03125, 0.0, 0.015625, 0.0, 0.015625, 0.015625, 0.015625, 0.015625, 0.0, 0.03125, 0.0625, 0.078125, 0.03125, 0.046875, 0.046875, 0.046875, 0.0, 0.0, 0.03125, 0.015625, 0.03125, 0.015625, 0.046875, 0.015625, 0.046875, 0.015625, 0.0625, 0.03125, 0.0, 0.015625, 0.0, 0.015625, 0.0, 0.015625, 0.0, 0.0, 0.015625, 0.0, 0.015625, 0.015625, 0.0, 0.03125, 0.015625, 0.0625, 0.0, 0.0, 0.0, 0.0, 0.015625, 0.015625, 0.046875, 0.015625, 0.015625, 0.03125, 0.03125, 0.078125, 0.0625, 0.0, 0.078125, 0.03125, 0.046875, 0.015625, 0.03125, 0.0, 0.0, 0.015625, 0.015625, 0.046875, 0.015625, 0.0, 0.03125, 0.0, 0.0, 0.03125]</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>[-1e-05, 0.0, 0.015625, 0.015873015873015872, 0.03125, 0.04081632653061224, 0.046875, 0.0625, 0.078125, 0.09375, 1.0]</t>
+        </is>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.06339858750000001</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.9703830379818594</v>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>[0.0, 0.03, 0.05, 0.06, 0.065, 0.065]</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>[0.0, 0.325, 0.645, 0.65, 0.835, 0.84, 0.93, 0.96, 0.975, 0.985, 0.985]</t>
+        </is>
+      </c>
+      <c r="U12" t="n">
+        <v>0.985</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0.01950219671201814</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0.121952380952381</v>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>Greedy</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
         <is>
           <t>b</t>
         </is>
       </c>
-      <c r="S12" t="b">
+      <c r="AA12" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>closest</t>
+          <t>temporal</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.255</v>
+        <v>0.31</v>
       </c>
       <c r="D13" t="n">
-        <v>0.05314000600240096</v>
+        <v>0.98</v>
       </c>
       <c r="E13" t="n">
-        <v>257.83</v>
+        <v>0.0294858870967742</v>
       </c>
       <c r="F13" t="n">
-        <v>131.7058823529412</v>
+        <v>0.03478332234254246</v>
       </c>
       <c r="G13" t="n">
-        <v>38.69578330189</v>
+        <v>29.15</v>
       </c>
       <c r="H13" t="n">
-        <v>0.00238117818</v>
+        <v>18.87096774193548</v>
       </c>
       <c r="I13" t="n">
-        <v>37.670302726925</v>
+        <v>3.092814419565</v>
       </c>
       <c r="J13" t="n">
-        <v>1.025480574965</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>[0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.03125, 0.015625, 0.03125, 0.015625, 0.015625, 0.015625, 0.03125, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.03125, 0.015625, 0.03125, 0.015625, 0.015625, 0.015625, 0.16326530612244897, 0.015625, 0.40625, 0.015625, 0.015625, 0.9375, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.03125, 0.03125, 0.03125, 0.015625, 0.015625, 0.015625, 0.328125, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.03125]</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>[0.015615, 0.015625, 0.03125, 0.16326530612244897, 0.328125, 0.40625, 0.9375, 1.0]</t>
-        </is>
+        <v>9.6061865e-05</v>
+      </c>
+      <c r="K13" t="n">
+        <v>3.086964630055</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.00584978951</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[0.0, 0.19, 0.235, 0.24, 0.245, 0.25, 0.255, 0.255]</t>
-        </is>
-      </c>
-      <c r="N13" t="n">
-        <v>0.965</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0.255</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0.05356140537355292</v>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>CoDy</t>
-        </is>
-      </c>
-      <c r="R13" t="inlineStr">
+          <t>[0.015625, 0.015625, 0.015625, 0.015625, 0.03125, 0.015625, 0.09375, 0.015625, 0.015625, 0.015625, 0.015625, 0.03125, 0.0625, 0.015625, 0.015625, 0.015625, 0.046875, 0.03125, 0.015625, 0.03125, 0.03125, 0.015625, 0.015625, 0.0625, 0.046875, 0.015625, 0.046875, 0.03125, 0.046875, 0.015625, 0.015625, 0.078125, 0.078125, 0.03125, 0.03125, 0.03125, 0.015625, 0.015625, 0.046875, 0.03125, 0.015625, 0.046875, 0.015625, 0.015625, 0.015625, 0.015625, 0.09375, 0.03125, 0.03125, 0.03125, 0.015625, 0.015625, 0.015625, 0.0625, 0.015625, 0.046875, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.03125]</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>[0.015615, 0.015625, 0.03125, 0.046875, 0.0625, 0.078125, 0.09375, 1.0]</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>[0.015625, 0.015625, 0.015625, 0.015625, 0.078125, 0.015873015873015872, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.03125, 0.046875, 0.015625, 0.140625, 0.078125, 0.015625, 0.0, 0.015625, 0.015625, 0.015625, 0.078125, 0.015625, 0.09375, 0.0, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.046875, 0.03125, 0.03125, 0.015625, 0.0, 0.015625, 0.0625, 0.015625, 0.015625, 0.015625, 0.03125, 0.046875, 0.03125, 0.03125, 0.0, 0.03125, 0.0, 0.015625, 0.03125, 0.015625, 0.015625, 0.140625, 0.0, 0.046875, 0.0625, 0.046875, 0.0, 0.15625, 0.015625, 0.09375, 0.0625, 0.171875, 0.015625, 0.046875, 0.015625, 0.046875, 0.03125, 0.0625, 0.0625, 0.015625, 0.046875, 0.015625, 0.015625, 0.109375, 0.0625, 0.046875, 0.046875, 0.046875, 0.0, 0.02040816326530612, 0.015625, 0.0, 0.015625, 0.015625, 0.078125, 0.078125, 0.015625, 0.0, 0.03125, 0.09375, 0.03125, 0.15625, 0.03125, 0.0, 0.015625, 0.015625, 0.046875, 0.015625, 0.015625, 0.015625, 0.03125, 0.015625, 0.125, 0.015625, 0.046875, 0.0625, 0.015625, 0.015625, 0.078125, 0.015625, 0.0, 0.015625, 0.046875, 0.0, 0.015625, 0.015625, 0.015625, 0.03125, 0.125, 0.015625, 0.046875, 0.015625, 0.0, 0.015625, 0.046875, 0.015625, 0.03125, 0.0, 0.03125, 0.015625, 0.078125, 0.125, 0.09375, 0.140625, 0.015625, 0.03125, 0.015625, 0.03125, 0.015625, 0.078125, 0.015625, 0.015625, 0.015625, 0.03125, 0.015625, 0.078125, 0.03125, 0.046875, 0.015625, 0.015625, 0.015625, 0.03125, 0.015625, 0.03125, 0.015625, 0.046875, 0.046875, 0.125, 0.015625, 0.015625, 0.015625, 0.0, 0.0625, 0.140625, 0.015625, 0.015625, 0.015625, 0.015625, 0.046875, 0.015625, 0.015625, 0.03125, 0.046875, 0.0625, 0.03125, 0.0625, 0.09375, 0.03125, 0.015625, 0.015625, 0.03125, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.046875, 0.03125, 0.015625]</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>[-1e-05, 0.0, 0.015625, 0.015873015873015872, 0.02040816326530612, 0.03125, 0.046875, 0.0625, 0.078125, 0.09375, 0.109375, 0.125, 0.140625, 0.15625, 0.171875, 1.0]</t>
+        </is>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.301953975</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.9525549634920635</v>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>[0.0, 0.17, 0.24, 0.275, 0.29, 0.3, 0.31, 0.31]</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>[0.0, 0.08, 0.545, 0.55, 0.555, 0.69, 0.8, 0.85, 0.895, 0.92, 0.925, 0.945, 0.965, 0.975, 0.98, 0.98]</t>
+        </is>
+      </c>
+      <c r="U13" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0.03479078089569161</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0.4710077519379844</v>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>Greedy</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
         <is>
           <t>c</t>
         </is>
       </c>
-      <c r="S13" t="b">
+      <c r="AA13" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1-best</t>
+          <t>spatio-temporal</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.405</v>
+        <v>0.3</v>
       </c>
       <c r="D14" t="n">
-        <v>0.04300122826908542</v>
+        <v>0.95</v>
       </c>
       <c r="E14" t="n">
-        <v>305.695</v>
+        <v>0.02914540816326531</v>
       </c>
       <c r="F14" t="n">
-        <v>222.0740740740741</v>
+        <v>0.04399995917111073</v>
       </c>
       <c r="G14" t="n">
-        <v>48.06485384917</v>
+        <v>35.25</v>
       </c>
       <c r="H14" t="n">
-        <v>0.06933086341500001</v>
+        <v>18.5</v>
       </c>
       <c r="I14" t="n">
-        <v>47.18498959438</v>
+        <v>3.319974210905</v>
       </c>
       <c r="J14" t="n">
-        <v>0.87986425479</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>[0.078125, 0.015625, 0.015625, 0.015625, 0.046875, 0.015625, 0.015625, 0.03125, 0.015625, 0.03125, 0.015625, 0.03125, 0.015625, 0.0625, 0.015625, 0.03125, 0.03125, 0.125, 0.015625, 0.015625, 0.015625, 0.078125, 0.015625, 0.015625, 0.015625, 0.03125, 0.015625, 0.015625, 0.03125, 0.21875, 0.03125, 0.015625, 0.140625, 0.03125, 0.015625, 0.015625, 0.0625, 0.015625, 0.061224489795918366, 0.015625, 0.1875, 0.0625, 0.078125, 0.03125, 0.015625, 0.015625, 0.0625, 0.03125, 0.015625, 0.171875, 0.0625, 0.015625, 0.03125, 0.015625, 0.015625, 0.0625, 0.015625, 0.15625, 0.015625, 0.03125, 0.03125, 0.03125, 0.03125, 0.015625, 0.015625, 0.109375, 0.015625, 0.03125, 0.0625, 0.015625, 0.046875, 0.015625, 0.078125, 0.140625, 0.078125, 0.015625, 0.015625, 0.0625, 0.015625, 0.03125, 0.03125]</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>[0.015615, 0.015625, 0.03125, 0.046875, 0.061224489795918366, 0.0625, 0.078125, 0.109375, 0.125, 0.140625, 0.15625, 0.171875, 0.1875, 0.21875, 1.0]</t>
-        </is>
+        <v>6.3497795e-05</v>
+      </c>
+      <c r="K14" t="n">
+        <v>3.31145228722</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.008521923685</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[0.0, 0.19, 0.285, 0.295, 0.3, 0.34, 0.365, 0.37, 0.375, 0.385, 0.39, 0.395, 0.4, 0.405, 0.405]</t>
-        </is>
-      </c>
-      <c r="N14" t="n">
+          <t>[0.0625, 0.046875, 0.046875, 0.015625, 0.046875, 0.03125, 0.03125, 0.015625, 0.015625, 0.015625, 0.046875, 0.046875, 0.015625, 0.015625, 0.015625, 0.046875, 0.015625, 0.015625, 0.03125, 0.046875, 0.015625, 0.015625, 0.0625, 0.03125, 0.015625, 0.015625, 0.015625, 0.015625, 0.061224489795918366, 0.015625, 0.109375, 0.046875, 0.03125, 0.03125, 0.015625, 0.015625, 0.046875, 0.03125, 0.015625, 0.046875, 0.046875, 0.015625, 0.015625, 0.015625, 0.015625, 0.03125, 0.03125, 0.03125, 0.015625, 0.015625, 0.03125, 0.015625, 0.046875, 0.015625, 0.046875, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625]</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>[0.015615, 0.015625, 0.03125, 0.046875, 0.061224489795918366, 0.0625, 0.109375, 1.0]</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>[0.28125, 0.0625, 0.046875, 0.0, 0.015873015873015872, 0.046875, 0.015625, 0.015625, 0.046875, 0.03125, 0.03125, 0.0, 0.015625, 0.203125, 0.078125, 0.015625, 0.0, 0.015625, 0.03125, 0.046875, 0.078125, 0.03125, 0.15625, 0.15789473684210525, 0.0, 0.015625, 0.0, 0.21875, 0.015625, 0.0, 0.046875, 0.0, 0.0625, 0.046875, 0.046875, 0.0, 0.0, 0.0, 0.015625, 0.015625, 0.015625, 0.015625, 0.0625, 0.046875, 0.015625, 0.03125, 0.0, 0.046875, 0.0, 0.015625, 0.078125, 0.03125, 0.015625, 0.15625, 0.015625, 0.046875, 0.015625, 0.0625, 0.03125, 0.15625, 0.0, 0.09375, 0.09375, 0.140625, 0.015625, 0.0625, 0.09375, 0.015625, 0.015625, 0.0, 0.046875, 0.0, 0.015625, 0.015625, 0.0625, 0.0625, 0.0625, 0.0625, 0.0, 0.015625, 0.061224489795918366, 0.0625, 0.0, 0.046875, 0.015625, 0.0625, 0.109375, 0.046875, 0.015625, 0.046875, 0.078125, 0.03125, 0.1875, 0.03125, 0.0, 0.015625, 0.015625, 0.046875, 0.03125, 0.03125, 0.015625, 0.03125, 0.015625, 0.046875, 0.046875, 0.03125, 0.015625, 0.015625, 0.171875, 0.015625, 0.0, 0.046875, 0.046875, 0.0, 0.015625, 0.03125, 0.015625, 0.078125, 0.078125, 0.09375, 0.046875, 0.015625, 0.0, 0.09375, 0.0625, 0.0, 0.015625, 0.015625, 0.03125, 0.03125, 0.125, 0.203125, 0.03125, 0.140625, 0.0625, 0.0, 0.015625, 0.03125, 0.03125, 0.078125, 0.0, 0.03125, 0.015625, 0.03125, 0.0625, 0.125, 0.03125, 0.046875, 0.0625, 0.015625, 0.03125, 0.0625, 0.046875, 0.0, 0.015625, 0.03125, 0.046875, 0.015625, 0.078125, 0.015625, 0.0625, 0.03125, 0.015625, 0.0, 0.03125, 0.09375, 0.046875, 0.0625, 0.015625, 0.046875, 0.03125, 0.046875, 0.0625, 0.0625, 0.125, 0.03125, 0.09375, 0.03125, 0.015625, 0.015625, 0.03125, 0.03125, 0.015625, 0.03125, 0.03125, 0.03125, 0.0, 0.015625, 0.0, 0.0625]</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>[-1e-05, 0.0, 0.015625, 0.015873015873015872, 0.03125, 0.046875, 0.061224489795918366, 0.0625, 0.078125, 0.09375, 0.109375, 0.125, 0.140625, 0.15625, 0.15789473684210525, 0.171875, 0.1875, 0.203125, 0.21875, 0.28125, 1.0]</t>
+        </is>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.2923541163265306</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.913790927988125</v>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>[0.0, 0.16, 0.215, 0.28, 0.285, 0.295, 0.3, 0.3]</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>[0.0, 0.14, 0.38, 0.385, 0.555, 0.685, 0.69, 0.795, 0.835, 0.87, 0.875, 0.89, 0.9, 0.915, 0.92, 0.925, 0.93, 0.94, 0.945, 0.95, 0.95]</t>
+        </is>
+      </c>
+      <c r="U14" t="n">
         <v>0.95</v>
       </c>
-      <c r="O14" t="n">
-        <v>0.405</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0.05617620129192028</v>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>CoDy</t>
-        </is>
-      </c>
-      <c r="R14" t="inlineStr">
+      <c r="V14" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0.04476871121255519</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0.456</v>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>Greedy</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
         <is>
           <t>d</t>
         </is>
       </c>
-      <c r="S14" t="b">
+      <c r="AA14" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>random</t>
+          <t>1-delta</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.065</v>
+        <v>0.265</v>
       </c>
       <c r="D15" t="n">
-        <v>0.02884615384615385</v>
+        <v>0.985</v>
       </c>
       <c r="E15" t="n">
-        <v>21.8</v>
+        <v>0.02034198113207547</v>
       </c>
       <c r="F15" t="n">
-        <v>18.46153846153846</v>
+        <v>0.02828585960610978</v>
       </c>
       <c r="G15" t="n">
-        <v>2.61809634633</v>
+        <v>78.145</v>
       </c>
       <c r="H15" t="n">
-        <v>9.5932705e-05</v>
+        <v>66.01886792452831</v>
       </c>
       <c r="I15" t="n">
-        <v>2.61338170933</v>
+        <v>9.822743930885</v>
       </c>
       <c r="J15" t="n">
-        <v>0.004714637</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>[0.03125, 0.015625, 0.015625, 0.046875, 0.03125, 0.046875, 0.03125, 0.015625, 0.03125, 0.015625, 0.015625, 0.0625, 0.015625]</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>[0.015615, 0.015625, 0.03125, 0.046875, 0.0625, 1.0]</t>
-        </is>
+        <v>5.385983277525</v>
+      </c>
+      <c r="K15" t="n">
+        <v>9.798719983665</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.02402394722</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>[0.0, 0.03, 0.05, 0.06, 0.065, 0.065]</t>
-        </is>
-      </c>
-      <c r="N15" t="n">
+          <t>[0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.03125, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.03125, 0.03125, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.03125, 0.015625, 0.015625, 0.03125, 0.015625, 0.03125, 0.015625, 0.046875, 0.015625, 0.015625, 0.03125, 0.015625, 0.015625, 0.03125, 0.03125, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.03125, 0.03125, 0.03125, 0.015625, 0.015625, 0.015625, 0.015625, 0.046875, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625]</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>[0.015615, 0.015625, 0.03125, 0.046875, 1.0]</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>[0.015625, 0.046875, 0.03125, 0.015625, 0.03125, 0.015873015873015872, 0.015625, 0.015625, 0.03125, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.0625, 0.0625, 0.03125, 0.0, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.15625, 0.0, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.03125, 0.03125, 0.03125, 0.03125, 0.015625, 0.03125, 0.015625, 0.015625, 0.015625, 0.03125, 0.015625, 0.015625, 0.015625, 0.0, 0.03125, 0.0, 0.015625, 0.015625, 0.078125, 0.015625, 0.03125, 0.015625, 0.015625, 0.015625, 0.140625, 0.03125, 0.03125, 0.015625, 0.046875, 0.03125, 0.03125, 0.015625, 0.046875, 0.015625, 0.03125, 0.03125, 0.015625, 0.03125, 0.046875, 0.015625, 0.015625, 0.015625, 0.015625, 0.0625, 0.046875, 0.03125, 0.046875, 0.015625, 0.04081632653061224, 0.0625, 0.015625, 0.03125, 0.015625, 0.03125, 0.015625, 0.015625, 0.015625, 0.03125, 0.0625, 0.03125, 0.015625, 0.03125, 0.0, 0.015625, 0.015625, 0.03125, 0.015625, 0.046875, 0.015625, 0.03125, 0.015625, 0.046875, 0.015625, 0.0625, 0.03125, 0.015625, 0.03125, 0.015625, 0.015625, 0.015625, 0.015625, 0.078125, 0.015625, 0.015625, 0.046875, 0.015625, 0.09375, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.03125, 0.015625, 0.046875, 0.015625, 0.015625, 0.09375, 0.078125, 0.0625, 0.0625, 0.015625, 0.015625, 0.015625, 0.015625, 0.03125, 0.015625, 0.03125, 0.03125, 0.046875, 0.015625, 0.03125, 0.171875, 0.0625, 0.046875, 0.015625, 0.015625, 0.015625, 0.015625, 0.046875, 0.015625, 0.015625, 0.015625, 0.046875, 0.015625, 0.03125, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.0625, 0.015625, 0.015625, 0.0625, 0.046875, 0.046875, 0.015625, 0.015625, 0.015625, 0.046875, 0.0625, 0.03125, 0.015625, 0.03125, 0.0625, 0.03125, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.0625]</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>[-1e-05, 0.0, 0.015625, 0.015873015873015872, 0.03125, 0.04081632653061224, 0.046875, 0.0625, 0.078125, 0.09375, 0.140625, 0.15625, 0.171875, 1.0]</t>
+        </is>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.260157225</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0.9642329587585033</v>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>[0.0, 0.195, 0.255, 0.265, 0.265]</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>[0.0, 0.025, 0.59, 0.595, 0.785, 0.79, 0.875, 0.945, 0.96, 0.97, 0.975, 0.98, 0.985, 0.985]</t>
+        </is>
+      </c>
+      <c r="U15" t="n">
         <v>0.985</v>
       </c>
-      <c r="O15" t="n">
-        <v>0.065</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0.01950219671201814</v>
-      </c>
-      <c r="Q15" t="inlineStr">
+      <c r="V15" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0.02833032171201814</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0.4176400000000001</v>
+      </c>
+      <c r="Y15" t="inlineStr">
         <is>
           <t>Greedy</t>
         </is>
       </c>
-      <c r="R15" t="inlineStr">
+      <c r="Z15" t="inlineStr">
         <is>
           <t>e</t>
         </is>
       </c>
-      <c r="S15" t="b">
+      <c r="AA15" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>recent</t>
+          <t>random</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>0.31</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0294858870967742</v>
+        <v>0.965</v>
       </c>
       <c r="E16" t="n">
-        <v>29.15</v>
+        <v>0.04225641869651087</v>
       </c>
       <c r="F16" t="n">
-        <v>18.87096774193548</v>
+        <v>0.05527934573975032</v>
       </c>
       <c r="G16" t="n">
-        <v>3.092814419565</v>
+        <v>257.255</v>
       </c>
       <c r="H16" t="n">
-        <v>9.6061865e-05</v>
+        <v>159.8870967741935</v>
       </c>
       <c r="I16" t="n">
-        <v>3.086964630055</v>
+        <v>38.45274139260501</v>
       </c>
       <c r="J16" t="n">
-        <v>0.00584978951</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>[0.015625, 0.015625, 0.015625, 0.015625, 0.03125, 0.015625, 0.09375, 0.015625, 0.015625, 0.015625, 0.015625, 0.03125, 0.0625, 0.015625, 0.015625, 0.015625, 0.046875, 0.03125, 0.015625, 0.03125, 0.03125, 0.015625, 0.015625, 0.0625, 0.046875, 0.015625, 0.046875, 0.03125, 0.046875, 0.015625, 0.015625, 0.078125, 0.078125, 0.03125, 0.03125, 0.03125, 0.015625, 0.015625, 0.046875, 0.03125, 0.015625, 0.046875, 0.015625, 0.015625, 0.015625, 0.015625, 0.09375, 0.03125, 0.03125, 0.03125, 0.015625, 0.015625, 0.015625, 0.0625, 0.015625, 0.046875, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.03125]</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>[0.015615, 0.015625, 0.03125, 0.046875, 0.0625, 0.078125, 0.09375, 1.0]</t>
-        </is>
+        <v>0.001266267025</v>
+      </c>
+      <c r="K16" t="n">
+        <v>38.0221194913</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.430621901305</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>[0.0, 0.17, 0.24, 0.275, 0.29, 0.3, 0.31, 0.31]</t>
-        </is>
-      </c>
-      <c r="N16" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="O16" t="n">
+          <t>[0.015625, 0.015625, 0.015625, 0.140625, 0.015625, 0.046875, 0.015625, 0.0625, 0.015625, 0.046875, 0.015625, 0.078125, 0.015625, 0.140625, 0.015625, 0.0625, 0.046875, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.03125, 0.015625, 0.015625, 0.09375, 0.03125, 0.015625, 0.140625, 0.015625, 0.015625, 0.015625, 0.24489795918367346, 0.015625, 0.046875, 0.015625, 0.015625, 0.078125, 0.234375, 0.015625, 0.09375, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.03125, 0.03125, 0.046875, 0.015625, 0.015625, 0.015625, 0.046875, 0.015625, 0.1875, 0.015625, 0.015625, 0.015625, 0.015625, 0.03125, 0.03125]</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>[0.015615, 0.015625, 0.03125, 0.046875, 0.0625, 0.078125, 0.09375, 0.140625, 0.1875, 0.234375, 0.24489795918367346, 1.0]</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>[0.03125, 0.09375, 0.03125, 0.015625, 0.046875, 0.031746031746031744, 0.015625, 0.015625, 0.03125, 0.140625, 0.015625, 0.046875, 0.03125, 0.015625, 0.09375, 0.09375, 0.0625, 0.03125, 0.015625, 0.03125, 0.046875, 0.03125, 0.015625, 0.078125, 0.15789473684210525, 0.078125, 0.015625, 0.03125, 0.03125, 0.140625, 0.03125, 0.015625, 0.03125, 0.046875, 0.03125, 0.0625, 0.0, 0.046875, 0.03125, 0.046875, 0.015625, 0.015625, 0.015625, 0.078125, 0.046875, 0.015625, 0.015625, 0.03125, 0.03125, 0.03125, 0.015625, 0.109375, 0.046875, 0.015625, 0.0625, 0.09375, 0.03125, 0.046875, 0.03125, 0.0625, 0.015625, 0.03125, 0.0625, 0.078125, 0.03125, 0.03125, 0.109375, 0.140625, 0.015625, 0.03125, 0.65625, 0.03125, 0.03125, 0.015625, 0.03125, 0.0625, 0.0625, 0.046875, 0.078125, 0.015625, 0.24489795918367346, 0.03125, 0.03125, 0.03125, 0.015625, 0.03125, 0.03125, 0.03125, 0.09375, 0.09375, 0.046875, 0.046875, 0.078125, 0.046875, 0.0, 0.015625, 0.015625, 0.078125, 0.03125, 0.03125, 0.03125, 0.234375, 0.015625, 0.25, 0.09375, 0.609375, 0.015625, 0.03125, 0.03125, 0.015625, 0.03125, 0.015625, 0.03125, 0.078125, 0.015625, 0.03125, 0.03125, 0.0625, 0.09375, 0.015625, 0.09375, 0.015625, 0.03125, 0.03125, 0.03125, 0.03125, 0.03125, 0.03125, 0.046875, 0.03125, 0.03125, 0.03125, 0.078125, 0.03125, 0.03125, 0.03125, 0.015625, 0.03125, 0.03125, 0.03125, 0.03125, 0.046875, 0.03125, 0.046875, 0.03125, 0.046875, 0.046875, 0.046875, 0.03125, 0.015625, 0.03125, 0.03125, 0.03125, 0.03125, 0.015625, 0.125, 0.03125, 0.09375, 0.015625, 0.03125, 0.046875, 0.046875, 0.109375, 0.078125, 0.109375, 0.015625, 0.0, 0.03125, 0.03125, 0.1875, 0.0625, 0.015625, 0.15625, 0.03125, 0.09375, 0.03125, 0.234375, 0.09375, 0.03125, 0.0625, 0.125, 0.015625, 0.015625, 0.109375, 0.03125, 0.015625, 0.0625, 0.078125, 0.046875, 0.03125, 0.03125, 0.046875, 0.046875]</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>[-1e-05, 0.0, 0.015625, 0.03125, 0.031746031746031744, 0.046875, 0.0625, 0.078125, 0.09375, 0.109375, 0.125, 0.140625, 0.15625, 0.15789473684210525, 0.1875, 0.234375, 0.24489795918367346, 0.25, 0.609375, 0.65625, 1.0]</t>
+        </is>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.2982168301020408</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.9200644845357442</v>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>[0.0, 0.19, 0.22, 0.25, 0.26, 0.27, 0.28, 0.295, 0.3, 0.305, 0.31, 0.31]</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>[0.0, 0.015, 0.21, 0.575, 0.58, 0.7, 0.755, 0.81, 0.87, 0.895, 0.905, 0.92, 0.925, 0.93, 0.935, 0.945, 0.95, 0.955, 0.96, 0.965, 0.965]</t>
+        </is>
+      </c>
+      <c r="U16" t="n">
+        <v>0.965</v>
+      </c>
+      <c r="V16" t="n">
         <v>0.31</v>
       </c>
-      <c r="P16" t="n">
-        <v>0.03479078089569161</v>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>Greedy</t>
-        </is>
-      </c>
-      <c r="R16" t="inlineStr">
+      <c r="W16" t="n">
+        <v>0.05623519363885905</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0.4692549019607842</v>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>CoDy</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
         <is>
           <t>f</t>
         </is>
       </c>
-      <c r="S16" t="b">
+      <c r="AA16" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>closest</t>
+          <t>temporal</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.015</v>
+        <v>0.375</v>
       </c>
       <c r="D17" t="n">
-        <v>0.02083333333333333</v>
+        <v>0.975</v>
       </c>
       <c r="E17" t="n">
-        <v>26.3</v>
+        <v>0.04102465986394558</v>
       </c>
       <c r="F17" t="n">
-        <v>13.33333333333333</v>
+        <v>0.04960379619684131</v>
       </c>
       <c r="G17" t="n">
-        <v>2.6474922127</v>
+        <v>256.305</v>
       </c>
       <c r="H17" t="n">
-        <v>9.5678285e-05</v>
+        <v>181.8133333333333</v>
       </c>
       <c r="I17" t="n">
-        <v>2.64052801439</v>
+        <v>38.74158638748001</v>
       </c>
       <c r="J17" t="n">
-        <v>0.006964198309999999</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>[0.015625, 0.015625, 0.03125]</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>[0.015615, 0.015625, 0.03125, 1.0]</t>
-        </is>
+        <v>0.00066164043</v>
+      </c>
+      <c r="K17" t="n">
+        <v>38.144586095495</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.597000291985</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>[0.0, 0.01, 0.015, 0.015]</t>
-        </is>
-      </c>
-      <c r="N17" t="n">
-        <v>0.985</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0.02573076105442177</v>
-      </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>Greedy</t>
-        </is>
-      </c>
-      <c r="R17" t="inlineStr">
+          <t>[0.09375, 0.015625, 0.015625, 0.015625, 0.109375, 0.015625, 0.03125, 0.015625, 0.03125, 0.015625, 0.03125, 0.015625, 0.109375, 0.015625, 0.0625, 0.015625, 0.03125, 0.015625, 0.015625, 0.015625, 0.0625, 0.015625, 0.015625, 0.015625, 0.03125, 0.015625, 0.015625, 0.125, 0.109375, 0.078125, 0.078125, 0.015625, 0.03125, 0.015625, 0.078125, 0.015625, 0.015625, 0.061224489795918366, 0.015625, 0.078125, 0.03125, 0.03125, 0.015625, 0.015625, 0.0625, 0.03125, 0.015625, 0.0625, 0.015625, 0.03125, 0.015625, 0.015625, 0.015625, 0.125, 0.015625, 0.03125, 0.03125, 0.03125, 0.03125, 0.015625, 0.015625, 0.140625, 0.015625, 0.03125, 0.125, 0.015625, 0.0625, 0.015625, 0.0625, 0.015625, 0.015625, 0.203125, 0.015625, 0.09375, 0.03125]</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>[0.015615, 0.015625, 0.03125, 0.061224489795918366, 0.0625, 0.078125, 0.09375, 0.109375, 0.125, 0.140625, 0.203125, 1.0]</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>[0.03125, 0.09375, 0.03125, 0.015625, 0.046875, 0.031746031746031744, 0.015625, 0.015625, 0.03125, 0.109375, 0.015625, 0.03125, 0.03125, 0.015625, 0.109375, 0.078125, 0.03125, 0.03125, 0.015625, 0.03125, 0.03125, 0.03125, 0.015625, 0.09375, 0.15789473684210525, 0.109375, 0.015625, 0.03125, 0.03125, 0.0625, 0.03125, 0.015625, 0.09375, 0.015625, 0.03125, 0.03125, 0.03125, 0.046875, 0.453125, 0.03125, 0.0625, 0.015625, 0.015625, 0.015625, 0.078125, 0.0625, 0.015625, 0.015625, 0.0, 0.03125, 0.0, 0.015625, 0.046875, 0.0625, 0.015625, 0.078125, 0.125, 0.046875, 0.109375, 0.078125, 0.078125, 0.140625, 0.015625, 0.03125, 0.03125, 0.140625, 0.03125, 0.03125, 0.03125, 0.03125, 0.015625, 0.03125, 0.03125, 0.03125, 0.078125, 0.015625, 0.03125, 0.03125, 0.0625, 0.046875, 0.03125, 0.015625, 0.061224489795918366, 0.03125, 0.03125, 0.03125, 0.015625, 0.078125, 0.03125, 0.0625, 0.046875, 0.0625, 0.03125, 0.03125, 0.03125, 0.03125, 0.0, 0.015625, 0.015625, 0.0625, 0.03125, 0.03125, 0.03125, 0.03125, 0.015625, 0.265625, 0.046875, 0.0625, 0.734375, 0.015625, 0.03125, 0.0625, 0.015625, 0.015625, 0.03125, 0.03125, 0.046875, 0.015625, 0.015625, 0.046875, 0.0625, 0.03125, 0.015625, 0.03125, 0.015625, 0.03125, 0.015625, 0.03125, 0.015625, 0.046875, 0.015625, 0.046875, 0.03125, 0.140625, 0.0625, 0.125, 0.03125, 0.015625, 0.015625, 0.015625, 0.03125, 0.03125, 0.03125, 0.015625, 0.0625, 0.03125, 0.03125, 0.046875, 0.046875, 0.03125, 0.03125, 0.03125, 0.015625, 0.03125, 0.046875, 0.0, 0.03125, 0.015625, 0.140625, 0.078125, 0.0625, 0.015625, 0.03125, 0.03125, 0.03125, 0.125, 0.015625, 0.046875, 0.015625, 0.0, 0.03125, 0.03125, 0.0625, 0.03125, 0.015625, 0.171875, 0.03125, 0.046875, 0.03125, 0.09375, 0.328125, 0.046875, 0.03125, 0.0625, 0.0625, 0.015625, 0.015625, 0.03125, 0.015625, 0.046875, 0.03125, 0.03125, 0.09375, 0.03125, 0.03125]</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>[-1e-05, 0.0, 0.015625, 0.03125, 0.031746031746031744, 0.046875, 0.061224489795918366, 0.0625, 0.078125, 0.09375, 0.109375, 0.125, 0.140625, 0.15789473684210525, 0.171875, 0.265625, 0.328125, 0.453125, 0.734375, 1.0]</t>
+        </is>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.3609998339285714</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.9346351127670367</v>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>[0.0, 0.19, 0.27, 0.275, 0.305, 0.325, 0.335, 0.35, 0.365, 0.37, 0.375, 0.375]</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>[0.0, 0.025, 0.265, 0.64, 0.645, 0.735, 0.74, 0.825, 0.865, 0.89, 0.91, 0.925, 0.945, 0.95, 0.955, 0.96, 0.965, 0.97, 0.975, 0.975]</t>
+        </is>
+      </c>
+      <c r="U17" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0.04992620129192028</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>CoDy</t>
+        </is>
+      </c>
+      <c r="Z17" t="inlineStr">
         <is>
           <t>g</t>
         </is>
       </c>
-      <c r="S17" t="b">
+      <c r="AA17" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1-best</t>
+          <t>spatio-temporal</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.265</v>
+        <v>0.36</v>
       </c>
       <c r="D18" t="n">
-        <v>0.02034198113207547</v>
+        <v>0.93</v>
       </c>
       <c r="E18" t="n">
-        <v>78.145</v>
+        <v>0.03557256235827665</v>
       </c>
       <c r="F18" t="n">
-        <v>66.01886792452831</v>
+        <v>0.03617868636324554</v>
       </c>
       <c r="G18" t="n">
-        <v>9.822743930885</v>
+        <v>256.44</v>
       </c>
       <c r="H18" t="n">
-        <v>5.385983277525</v>
+        <v>177.2222222222222</v>
       </c>
       <c r="I18" t="n">
-        <v>9.798719983665</v>
+        <v>38.69578330189</v>
       </c>
       <c r="J18" t="n">
-        <v>0.02402394722</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>[0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.03125, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.03125, 0.03125, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.03125, 0.015625, 0.015625, 0.03125, 0.015625, 0.03125, 0.015625, 0.046875, 0.015625, 0.015625, 0.03125, 0.015625, 0.015625, 0.03125, 0.03125, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.03125, 0.03125, 0.03125, 0.015625, 0.015625, 0.015625, 0.015625, 0.046875, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625]</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>[0.015615, 0.015625, 0.03125, 0.046875, 1.0]</t>
-        </is>
+        <v>0.00238117818</v>
+      </c>
+      <c r="K18" t="n">
+        <v>37.670302726925</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.025480574965</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>[0.0, 0.195, 0.255, 0.265, 0.265]</t>
-        </is>
-      </c>
-      <c r="N18" t="n">
-        <v>0.985</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0.265</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0.02833032171201814</v>
-      </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>Greedy</t>
-        </is>
-      </c>
-      <c r="R18" t="inlineStr">
+          <t>[0.015625, 0.015625, 0.015625, 0.046875, 0.015625, 0.03125, 0.015625, 0.03125, 0.015625, 0.03125, 0.015625, 0.171875, 0.0625, 0.015625, 0.0625, 0.015625, 0.03125, 0.03125, 0.015625, 0.015625, 0.015625, 0.09375, 0.015625, 0.015625, 0.015625, 0.03125, 0.015625, 0.015625, 0.125, 0.046875, 0.03125, 0.015625, 0.03125, 0.015625, 0.015625, 0.015625, 0.061224489795918366, 0.015625, 0.03125, 0.03125, 0.015625, 0.015625, 0.046875, 0.03125, 0.015625, 0.09375, 0.046875, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.03125, 0.03125, 0.03125, 0.03125, 0.015625, 0.015625, 0.015625, 0.03125, 0.125, 0.015625, 0.0625, 0.015625, 0.046875, 0.234375, 0.015625, 0.015625, 0.078125, 0.015625, 0.03125, 0.03125]</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>[0.015615, 0.015625, 0.03125, 0.046875, 0.061224489795918366, 0.0625, 0.078125, 0.09375, 0.125, 0.171875, 0.234375, 1.0]</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>[0.03125, 0.0625, 0.03125, 0.015625, 0.046875, 0.015873015873015872, 0.015625, 0.015625, 0.03125, 0.046875, 0.015625, 0.03125, 0.03125, 0.015625, 0.09375, 0.03125, 0.03125, 0.015625, 0.046875, 0.03125, 0.03125, 0.015625, 0.171875, 0.10526315789473684, 0.0625, 0.015625, 0.03125, 0.03125, 0.0625, 0.03125, 0.015625, 0.03125, 0.078125, 0.046875, 0.03125, 0.046875, 0.03125, 0.03125, 0.03125, 0.015625, 0.015625, 0.015625, 0.078125, 0.09375, 0.015625, 0.015625, 0.0, 0.03125, 0.0, 0.015625, 0.0625, 0.109375, 0.015625, 0.046875, 0.125, 0.046875, 0.03125, 0.046875, 0.03125, 0.109375, 0.015625, 0.03125, 0.0625, 0.0625, 0.03125, 0.015625, 0.03125, 0.03125, 0.015625, 0.03125, 0.03125, 0.03125, 0.03125, 0.015625, 0.046875, 0.03125, 0.03125, 0.03125, 0.015625, 0.015625, 0.061224489795918366, 0.03125, 0.03125, 0.015625, 0.015625, 0.03125, 0.03125, 0.03125, 0.046875, 0.03125, 0.03125, 0.03125, 0.03125, 0.03125, 0.0, 0.015625, 0.015625, 0.046875, 0.03125, 0.03125, 0.03125, 0.03125, 0.015625, 0.09375, 0.046875, 0.046875, 0.015625, 0.03125, 0.03125, 0.015625, 0.03125, 0.03125, 0.03125, 0.03125, 0.015625, 0.03125, 0.03125, 0.078125, 0.03125, 0.015625, 0.015625, 0.03125, 0.046875, 0.03125, 0.03125, 0.03125, 0.03125, 0.03125, 0.03125, 0.046875, 0.0625, 0.03125, 0.03125, 0.015625, 0.015625, 0.03125, 0.03125, 0.03125, 0.015625, 0.03125, 0.03125, 0.03125, 0.0625, 0.046875, 0.03125, 0.03125, 0.03125, 0.015625, 0.03125, 0.046875, 0.0, 0.03125, 0.015625, 0.03125, 0.03125, 0.015625, 0.03125, 0.03125, 0.03125, 0.03125, 0.015625, 0.0, 0.03125, 0.03125, 0.0625, 0.03125, 0.015625, 0.046875, 0.03125, 0.046875, 0.03125, 0.078125, 0.03125, 0.03125, 0.234375, 0.015625, 0.015625, 0.03125, 0.015625, 0.046875, 0.03125, 0.109375, 0.03125, 0.03125, 0.015625, 0.0625]</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>[-1e-05, 0.0, 0.015625, 0.015873015873015872, 0.03125, 0.046875, 0.061224489795918366, 0.0625, 0.078125, 0.09375, 0.10526315789473684, 0.109375, 0.125, 0.171875, 0.234375, 1.0]</t>
+        </is>
+      </c>
+      <c r="Q18" t="n">
+        <v>0.3486855801020408</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0.9030661513008713</v>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>[0.0, 0.19, 0.28, 0.305, 0.31, 0.325, 0.33, 0.34, 0.35, 0.355, 0.36, 0.36]</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>[0.0, 0.025, 0.245, 0.25, 0.705, 0.805, 0.81, 0.86, 0.88, 0.895, 0.9, 0.915, 0.92, 0.925, 0.93, 0.93]</t>
+        </is>
+      </c>
+      <c r="U18" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0.03786492831781835</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0.5190697674418605</v>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>CoDy</t>
+        </is>
+      </c>
+      <c r="Z18" t="inlineStr">
         <is>
           <t>h</t>
         </is>
       </c>
-      <c r="S18" t="b">
+      <c r="AA18" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1-delta</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.275</v>
+        <v>0.405</v>
       </c>
       <c r="D19" t="n">
-        <v>0.3248484848484848</v>
+        <v>0.95</v>
       </c>
       <c r="E19" t="n">
-        <v>13667.66</v>
+        <v>0.04300122826908542</v>
       </c>
       <c r="F19" t="n">
-        <v>13805</v>
+        <v>0.05460981714938977</v>
       </c>
       <c r="G19" t="n">
-        <v>91.88154397542</v>
+        <v>305.695</v>
       </c>
       <c r="H19" t="n">
-        <v>0.064283386315</v>
+        <v>222.0740740740741</v>
       </c>
       <c r="I19" t="n">
-        <v>76.79272849949001</v>
+        <v>48.06485384917</v>
       </c>
       <c r="J19" t="n">
-        <v>15.024532089615</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>[0.8, 0.1, 0.8, 0.7666666666666667, 0.06666666666666667, 0.8, 0.9333333333333333, 0.8666666666666667, 0.06666666666666667, 0.03333333333333333, 0.5, 0.06666666666666667, 0.6, 0.13333333333333333, 0.0, 0.43333333333333335, 0.06666666666666667, 0.06666666666666667, 0.06666666666666667, 0.5666666666666667, 0.13333333333333333, 0.23333333333333334, 0.06666666666666667, 0.03333333333333333, 0.06666666666666667, 0.03333333333333333, 0.16666666666666666, 0.5, 0.1, 0.3, 0.6666666666666666, 0.7, 0.06666666666666667, 0.9, 0.06666666666666667, 0.06666666666666667, 0.43333333333333335, 0.8666666666666667, 0.03333333333333333, 0.06666666666666667, 0.26666666666666666, 0.5666666666666667, 0.03333333333333333, 0.1, 0.8333333333333334, 0.13333333333333333, 0.2, 0.26666666666666666, 0.03333333333333333, 0.23333333333333334, 0.13333333333333333, 0.06666666666666667, 0.7, 0.9333333333333333, 0.13333333333333333]</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>[-1e-05, 0.0, 0.03333333333333333, 0.06666666666666667, 0.1, 0.13333333333333333, 0.16666666666666666, 0.2, 0.23333333333333334, 0.26666666666666666, 0.3, 0.43333333333333335, 0.5, 0.5666666666666667, 0.6, 0.6666666666666666, 0.7, 0.7666666666666667, 0.8, 0.8333333333333334, 0.8666666666666667, 0.9, 0.9333333333333333, 1.0]</t>
-        </is>
+        <v>0.06933086341500001</v>
+      </c>
+      <c r="K19" t="n">
+        <v>47.18498959438</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.87986425479</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>[0.0, 0.005, 0.035, 0.1, 0.115, 0.14, 0.145, 0.15, 0.16, 0.17, 0.175, 0.185, 0.195, 0.205, 0.21, 0.215, 0.225, 0.23, 0.245, 0.25, 0.26, 0.265, 0.275, 0.275]</t>
-        </is>
-      </c>
-      <c r="N19" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0.275</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0.3466013071895425</v>
-      </c>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>TGNNExplainer</t>
-        </is>
-      </c>
-      <c r="R19" t="inlineStr">
+          <t>[0.078125, 0.015625, 0.015625, 0.015625, 0.046875, 0.015625, 0.015625, 0.03125, 0.015625, 0.03125, 0.015625, 0.03125, 0.015625, 0.0625, 0.015625, 0.03125, 0.03125, 0.125, 0.015625, 0.015625, 0.015625, 0.078125, 0.015625, 0.015625, 0.015625, 0.03125, 0.015625, 0.015625, 0.03125, 0.21875, 0.03125, 0.015625, 0.140625, 0.03125, 0.015625, 0.015625, 0.0625, 0.015625, 0.061224489795918366, 0.015625, 0.1875, 0.0625, 0.078125, 0.03125, 0.015625, 0.015625, 0.0625, 0.03125, 0.015625, 0.171875, 0.0625, 0.015625, 0.03125, 0.015625, 0.015625, 0.0625, 0.015625, 0.15625, 0.015625, 0.03125, 0.03125, 0.03125, 0.03125, 0.015625, 0.015625, 0.109375, 0.015625, 0.03125, 0.0625, 0.015625, 0.046875, 0.015625, 0.078125, 0.140625, 0.078125, 0.015625, 0.015625, 0.0625, 0.015625, 0.03125, 0.03125]</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>[0.015615, 0.015625, 0.03125, 0.046875, 0.061224489795918366, 0.0625, 0.078125, 0.109375, 0.125, 0.140625, 0.15625, 0.171875, 0.1875, 0.21875, 1.0]</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>[0.03125, 0.078125, 0.046875, 0.015625, 0.0625, 0.031746031746031744, 0.015625, 0.015625, 0.0625, 0.046875, 0.015625, 0.03125, 0.03125, 0.015625, 0.125, 0.078125, 0.03125, 0.03125, 0.015625, 0.046875, 0.03125, 0.03125, 0.015625, 0.234375, 0.15789473684210525, 0.03125, 0.015625, 0.078125, 0.03125, 0.0625, 0.046875, 0.015625, 0.125, 0.15625, 0.03125, 0.03125, 0.0, 0.03125, 0.046875, 0.125, 0.015625, 0.015625, 0.015625, 0.03125, 0.078125, 0.015625, 0.015625, 0.03125, 0.03125, 0.0, 0.015625, 0.25, 0.125, 0.015625, 0.078125, 0.03125, 0.0625, 0.21875, 0.0625, 0.03125, 0.140625, 0.015625, 0.03125, 0.15625, 0.140625, 0.03125, 0.0625, 0.140625, 0.03125, 0.015625, 0.03125, 0.046875, 0.03125, 0.109375, 0.015625, 0.0625, 0.078125, 0.046875, 0.03125, 0.0625, 0.015625, 0.061224489795918366, 0.015625, 0.03125, 0.03125, 0.015625, 0.03125, 0.0625, 0.078125, 0.0625, 0.046875, 0.0625, 0.0625, 0.03125, 0.0, 0.015625, 0.015625, 0.0625, 0.03125, 0.046875, 0.0625, 0.03125, 0.015625, 0.171875, 0.0625, 0.078125, 0.0625, 0.015625, 0.03125, 0.0625, 0.015625, 0.046875, 0.03125, 0.03125, 0.03125, 0.015625, 0.03125, 0.046875, 0.203125, 0.078125, 0.03125, 0.015625, 0.03125, 0.03125, 0.046875, 0.03125, 0.046875, 0.03125, 0.03125, 0.03125, 0.125, 0.0625, 0.15625, 0.046875, 0.03125, 0.03125, 0.015625, 0.03125, 0.03125, 0.03125, 0.046875, 0.03125, 0.03125, 0.03125, 0.109375, 0.0625, 0.03125, 0.0625, 0.046875, 0.015625, 0.078125, 0.0625, 0.0, 0.03125, 0.015625, 0.109375, 0.140625, 0.25, 0.015625, 0.03125, 0.046875, 0.03125, 0.0625, 0.234375, 0.015625, 0.0, 0.046875, 0.03125, 0.046875, 0.046875, 0.015625, 0.078125, 0.03125, 0.140625, 0.046875, 0.0625, 0.046875, 0.046875, 0.078125, 0.015625, 0.015625, 0.140625, 0.015625, 0.21875, 0.03125, 0.109375, 0.03125, 0.03125, 0.046875, 0.0625]</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>[-1e-05, 0.0, 0.015625, 0.03125, 0.031746031746031744, 0.046875, 0.061224489795918366, 0.0625, 0.078125, 0.109375, 0.125, 0.140625, 0.15625, 0.15789473684210525, 0.171875, 0.203125, 0.21875, 0.234375, 0.25, 1.0]</t>
+        </is>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.3890530864795918</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0.9045718687194175</v>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>[0.0, 0.19, 0.285, 0.295, 0.3, 0.34, 0.365, 0.37, 0.375, 0.385, 0.39, 0.395, 0.4, 0.405, 0.405]</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>[0.0, 0.025, 0.215, 0.505, 0.51, 0.63, 0.635, 0.755, 0.815, 0.835, 0.86, 0.89, 0.905, 0.91, 0.915, 0.92, 0.93, 0.94, 0.95, 0.95]</t>
+        </is>
+      </c>
+      <c r="U19" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0.05617620129192028</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0.5678966789667896</v>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>CoDy</t>
+        </is>
+      </c>
+      <c r="Z19" t="inlineStr">
         <is>
           <t>i</t>
         </is>
       </c>
-      <c r="S19" t="b">
+      <c r="AA19" t="b">
         <v>0</v>
       </c>
     </row>
